--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2809762.668426341</v>
+        <v>2808334.530849387</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673422</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>96.13285199009043</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -710,16 +710,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>119.7510979034583</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>205.5810588664029</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>14.44327629684472</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>84.47684708846108</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,55 +1066,55 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>168.1666138174382</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1218,10 +1218,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.43923176655773</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="10">
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>295.4446848504175</v>
+        <v>295.4446848504178</v>
       </c>
       <c r="C11" t="n">
-        <v>277.9837349579453</v>
+        <v>277.9837349579448</v>
       </c>
       <c r="D11" t="n">
-        <v>267.3938848076199</v>
+        <v>267.3938848076202</v>
       </c>
       <c r="E11" t="n">
-        <v>294.6412132591987</v>
+        <v>294.641213259199</v>
       </c>
       <c r="F11" t="n">
-        <v>319.5868889286484</v>
+        <v>319.5868889286486</v>
       </c>
       <c r="G11" t="n">
-        <v>325.7189540084038</v>
+        <v>325.7189540084041</v>
       </c>
       <c r="H11" t="n">
-        <v>228.6857996761754</v>
+        <v>228.6857996761757</v>
       </c>
       <c r="I11" t="n">
-        <v>34.7231371497024</v>
+        <v>34.72313714970259</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.44210699121984</v>
+        <v>69.44210699122007</v>
       </c>
       <c r="T11" t="n">
-        <v>125.7619643995361</v>
+        <v>125.7619643995363</v>
       </c>
       <c r="U11" t="n">
-        <v>163.87292595928</v>
+        <v>163.8729259592803</v>
       </c>
       <c r="V11" t="n">
-        <v>240.4631016570718</v>
+        <v>240.4631016570721</v>
       </c>
       <c r="W11" t="n">
-        <v>261.9518119043499</v>
+        <v>261.9518119043502</v>
       </c>
       <c r="X11" t="n">
-        <v>282.441943865406</v>
+        <v>282.4419438654062</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.9487818429905</v>
+        <v>298.9487818429908</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.3781231526287</v>
       </c>
       <c r="I12" t="n">
-        <v>47.12598321092376</v>
+        <v>47.12598321092372</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.93066010031254</v>
+        <v>23.93066010031247</v>
       </c>
       <c r="S12" t="n">
         <v>148.8785594825027</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.54282336887422</v>
+        <v>92.54282336887451</v>
       </c>
       <c r="C13" t="n">
-        <v>31.89994134428742</v>
+        <v>79.95766428556504</v>
       </c>
       <c r="D13" t="n">
-        <v>61.32631620514928</v>
+        <v>61.32631620514957</v>
       </c>
       <c r="E13" t="n">
-        <v>59.1448058335061</v>
+        <v>59.14480583350638</v>
       </c>
       <c r="F13" t="n">
-        <v>58.13189120986817</v>
+        <v>58.13189120986846</v>
       </c>
       <c r="G13" t="n">
-        <v>79.67253200596136</v>
+        <v>79.67253200596164</v>
       </c>
       <c r="H13" t="n">
-        <v>65.78668708013311</v>
+        <v>65.78668708013338</v>
       </c>
       <c r="I13" t="n">
-        <v>37.20774443738827</v>
+        <v>37.20774443738853</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>43.72358903645014</v>
+        <v>43.72358903645036</v>
       </c>
       <c r="S13" t="n">
-        <v>118.7897142775855</v>
+        <v>118.7897142775857</v>
       </c>
       <c r="T13" t="n">
-        <v>136.2585548558172</v>
+        <v>136.2585548558175</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9737294230951</v>
+        <v>198.9737294230953</v>
       </c>
       <c r="V13" t="n">
-        <v>164.8484865107649</v>
+        <v>116.7907635694825</v>
       </c>
       <c r="W13" t="n">
-        <v>199.2338415235279</v>
+        <v>199.2338415235282</v>
       </c>
       <c r="X13" t="n">
-        <v>138.4204985759741</v>
+        <v>138.4204985759744</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.2954965390317</v>
+        <v>131.295496539032</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>295.4446848504175</v>
+        <v>295.4446848504176</v>
       </c>
       <c r="C14" t="n">
         <v>277.9837349579445</v>
@@ -1613,19 +1613,19 @@
         <v>267.3938848076199</v>
       </c>
       <c r="E14" t="n">
-        <v>294.6412132591987</v>
+        <v>294.6412132591988</v>
       </c>
       <c r="F14" t="n">
         <v>319.5868889286484</v>
       </c>
       <c r="G14" t="n">
-        <v>325.7189540084038</v>
+        <v>325.7189540084039</v>
       </c>
       <c r="H14" t="n">
-        <v>228.6857996761754</v>
+        <v>228.6857996761755</v>
       </c>
       <c r="I14" t="n">
-        <v>34.7231371497024</v>
+        <v>34.72313714970245</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.44210699122047</v>
+        <v>69.4421069912199</v>
       </c>
       <c r="T14" t="n">
         <v>125.7619643995361</v>
@@ -1664,16 +1664,16 @@
         <v>163.87292595928</v>
       </c>
       <c r="V14" t="n">
-        <v>240.4631016570718</v>
+        <v>240.4631016570719</v>
       </c>
       <c r="W14" t="n">
-        <v>261.9518119043499</v>
+        <v>261.95181190435</v>
       </c>
       <c r="X14" t="n">
         <v>282.441943865406</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.9487818429905</v>
+        <v>298.9487818429906</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.54282336887422</v>
+        <v>92.54282336887428</v>
       </c>
       <c r="C16" t="n">
-        <v>79.95766428556476</v>
+        <v>79.95766428556482</v>
       </c>
       <c r="D16" t="n">
-        <v>61.32631620514928</v>
+        <v>13.26859326387086</v>
       </c>
       <c r="E16" t="n">
-        <v>59.1448058335061</v>
+        <v>59.14480583350615</v>
       </c>
       <c r="F16" t="n">
-        <v>10.0741682685906</v>
+        <v>58.13189120986823</v>
       </c>
       <c r="G16" t="n">
-        <v>79.67253200596136</v>
+        <v>79.67253200596141</v>
       </c>
       <c r="H16" t="n">
-        <v>65.78668708013311</v>
+        <v>65.78668708013316</v>
       </c>
       <c r="I16" t="n">
-        <v>37.20774443738827</v>
+        <v>37.20774443738833</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>43.72358903645014</v>
+        <v>43.72358903645019</v>
       </c>
       <c r="S16" t="n">
         <v>118.7897142775855</v>
       </c>
       <c r="T16" t="n">
-        <v>136.2585548558172</v>
+        <v>136.2585548558173</v>
       </c>
       <c r="U16" t="n">
         <v>198.9737294230951</v>
       </c>
       <c r="V16" t="n">
-        <v>164.8484865107649</v>
+        <v>164.848486510765</v>
       </c>
       <c r="W16" t="n">
-        <v>199.2338415235279</v>
+        <v>199.233841523528</v>
       </c>
       <c r="X16" t="n">
         <v>138.4204985759741</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.2954965390317</v>
+        <v>131.2954965390318</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>295.4446848504175</v>
+        <v>295.4446848504176</v>
       </c>
       <c r="C17" t="n">
         <v>277.9837349579445</v>
@@ -1850,19 +1850,19 @@
         <v>267.3938848076199</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6412132591987</v>
+        <v>294.6412132591988</v>
       </c>
       <c r="F17" t="n">
         <v>319.5868889286484</v>
       </c>
       <c r="G17" t="n">
-        <v>325.7189540084038</v>
+        <v>325.7189540084039</v>
       </c>
       <c r="H17" t="n">
-        <v>228.6857996761754</v>
+        <v>228.6857996761755</v>
       </c>
       <c r="I17" t="n">
-        <v>34.72313714970286</v>
+        <v>34.72313714970245</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.44210699121984</v>
+        <v>69.4421069912199</v>
       </c>
       <c r="T17" t="n">
         <v>125.7619643995361</v>
@@ -1901,16 +1901,16 @@
         <v>163.87292595928</v>
       </c>
       <c r="V17" t="n">
-        <v>240.4631016570718</v>
+        <v>240.4631016570719</v>
       </c>
       <c r="W17" t="n">
-        <v>261.9518119043499</v>
+        <v>261.95181190435</v>
       </c>
       <c r="X17" t="n">
         <v>282.441943865406</v>
       </c>
       <c r="Y17" t="n">
-        <v>298.9487818429905</v>
+        <v>298.9487818429906</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.54282336887422</v>
+        <v>92.54282336887428</v>
       </c>
       <c r="C19" t="n">
-        <v>79.95766428556476</v>
+        <v>79.95766428556482</v>
       </c>
       <c r="D19" t="n">
-        <v>61.32631620514928</v>
+        <v>61.32631620514934</v>
       </c>
       <c r="E19" t="n">
-        <v>59.1448058335061</v>
+        <v>11.08708289222767</v>
       </c>
       <c r="F19" t="n">
-        <v>58.13189120986817</v>
+        <v>58.13189120986823</v>
       </c>
       <c r="G19" t="n">
-        <v>79.67253200596136</v>
+        <v>79.67253200596141</v>
       </c>
       <c r="H19" t="n">
-        <v>65.78668708013311</v>
+        <v>65.78668708013315</v>
       </c>
       <c r="I19" t="n">
-        <v>37.20774443738827</v>
+        <v>37.20774443738834</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>43.72358903645014</v>
+        <v>43.72358903645019</v>
       </c>
       <c r="S19" t="n">
         <v>118.7897142775855</v>
       </c>
       <c r="T19" t="n">
-        <v>136.2585548558172</v>
+        <v>136.2585548558173</v>
       </c>
       <c r="U19" t="n">
         <v>198.9737294230951</v>
       </c>
       <c r="V19" t="n">
-        <v>164.8484865107649</v>
+        <v>164.848486510765</v>
       </c>
       <c r="W19" t="n">
-        <v>199.2338415235279</v>
+        <v>199.233841523528</v>
       </c>
       <c r="X19" t="n">
         <v>138.4204985759741</v>
       </c>
       <c r="Y19" t="n">
-        <v>83.23777359775499</v>
+        <v>131.2954965390318</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.44210699121989</v>
+        <v>69.44210699121987</v>
       </c>
       <c r="T20" t="n">
         <v>125.7619643995361</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.93066010031254</v>
+        <v>23.93066010031252</v>
       </c>
       <c r="S21" t="n">
         <v>148.8785594825027</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44.48510042759578</v>
+        <v>92.54282336887428</v>
       </c>
       <c r="C22" t="n">
-        <v>79.9576642855648</v>
+        <v>79.95766428556482</v>
       </c>
       <c r="D22" t="n">
-        <v>61.32631620514933</v>
+        <v>13.26859326387086</v>
       </c>
       <c r="E22" t="n">
-        <v>59.14480583350614</v>
+        <v>59.14480583350615</v>
       </c>
       <c r="F22" t="n">
-        <v>58.13189120986821</v>
+        <v>58.13189120986823</v>
       </c>
       <c r="G22" t="n">
-        <v>79.6725320059614</v>
+        <v>79.67253200596141</v>
       </c>
       <c r="H22" t="n">
-        <v>65.78668708013315</v>
+        <v>65.78668708013316</v>
       </c>
       <c r="I22" t="n">
-        <v>37.20774443738831</v>
+        <v>37.20774443738833</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>43.72358903645018</v>
+        <v>43.72358903645016</v>
       </c>
       <c r="S22" t="n">
         <v>118.7897142775855</v>
       </c>
       <c r="T22" t="n">
-        <v>136.2585548558172</v>
+        <v>136.2585548558173</v>
       </c>
       <c r="U22" t="n">
         <v>198.9737294230951</v>
@@ -2336,7 +2336,7 @@
         <v>228.6857996761754</v>
       </c>
       <c r="I23" t="n">
-        <v>34.7231371497024</v>
+        <v>34.72313714970237</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.44210699121984</v>
+        <v>69.44210699121982</v>
       </c>
       <c r="T23" t="n">
         <v>125.7619643995361</v>
       </c>
       <c r="U23" t="n">
-        <v>163.87292595928</v>
+        <v>163.8729259592799</v>
       </c>
       <c r="V23" t="n">
         <v>240.4631016570718</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.93066010031254</v>
+        <v>23.93066010031252</v>
       </c>
       <c r="S24" t="n">
         <v>148.8785594825027</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.54282336887422</v>
+        <v>92.54282336887421</v>
       </c>
       <c r="C25" t="n">
-        <v>79.95766428556476</v>
+        <v>79.95766428556475</v>
       </c>
       <c r="D25" t="n">
-        <v>13.26859326387279</v>
+        <v>13.26859326387347</v>
       </c>
       <c r="E25" t="n">
-        <v>59.1448058335061</v>
+        <v>59.14480583350608</v>
       </c>
       <c r="F25" t="n">
-        <v>58.13189120986817</v>
+        <v>58.13189120986816</v>
       </c>
       <c r="G25" t="n">
-        <v>79.67253200596136</v>
+        <v>79.67253200596134</v>
       </c>
       <c r="H25" t="n">
-        <v>65.78668708013311</v>
+        <v>65.78668708013308</v>
       </c>
       <c r="I25" t="n">
-        <v>37.20774443738827</v>
+        <v>37.20774443738826</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>43.72358903645014</v>
+        <v>43.7235890364501</v>
       </c>
       <c r="S25" t="n">
         <v>118.7897142775855</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.54282336887428</v>
+        <v>44.48510042759625</v>
       </c>
       <c r="C28" t="n">
         <v>79.95766428556482</v>
@@ -2725,7 +2725,7 @@
         <v>58.13189120986823</v>
       </c>
       <c r="G28" t="n">
-        <v>31.6148090646835</v>
+        <v>79.67253200596141</v>
       </c>
       <c r="H28" t="n">
         <v>65.78668708013316</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>295.4446848504175</v>
+        <v>295.4446848504176</v>
       </c>
       <c r="C29" t="n">
-        <v>277.9837349579444</v>
+        <v>277.9837349579446</v>
       </c>
       <c r="D29" t="n">
-        <v>267.3938848076199</v>
+        <v>267.39388480762</v>
       </c>
       <c r="E29" t="n">
-        <v>294.6412132591987</v>
+        <v>294.6412132591988</v>
       </c>
       <c r="F29" t="n">
-        <v>319.5868889286484</v>
+        <v>319.5868889286485</v>
       </c>
       <c r="G29" t="n">
-        <v>325.7189540084038</v>
+        <v>325.718954008404</v>
       </c>
       <c r="H29" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761755</v>
       </c>
       <c r="I29" t="n">
-        <v>34.72313714970237</v>
+        <v>34.72313714970251</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.44210699122091</v>
+        <v>69.44210699121996</v>
       </c>
       <c r="T29" t="n">
-        <v>125.761964399536</v>
+        <v>125.7619643995362</v>
       </c>
       <c r="U29" t="n">
-        <v>163.8729259592799</v>
+        <v>163.8729259592801</v>
       </c>
       <c r="V29" t="n">
-        <v>240.4631016570718</v>
+        <v>240.4631016570719</v>
       </c>
       <c r="W29" t="n">
-        <v>261.9518119043499</v>
+        <v>261.9518119043501</v>
       </c>
       <c r="X29" t="n">
-        <v>282.441943865406</v>
+        <v>282.4419438654061</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.9487818429905</v>
+        <v>298.9487818429906</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.5428233688742</v>
+        <v>92.54282336887434</v>
       </c>
       <c r="C31" t="n">
-        <v>79.95766428556473</v>
+        <v>31.89994134428449</v>
       </c>
       <c r="D31" t="n">
-        <v>61.32631620514925</v>
+        <v>61.3263162051494</v>
       </c>
       <c r="E31" t="n">
-        <v>59.14480583350607</v>
+        <v>59.14480583350621</v>
       </c>
       <c r="F31" t="n">
-        <v>58.13189120986814</v>
+        <v>58.13189120986829</v>
       </c>
       <c r="G31" t="n">
-        <v>79.67253200596133</v>
+        <v>79.67253200596147</v>
       </c>
       <c r="H31" t="n">
-        <v>65.78668708013306</v>
+        <v>65.78668708013321</v>
       </c>
       <c r="I31" t="n">
-        <v>37.20774443738825</v>
+        <v>37.20774443738839</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.72358903645011</v>
+        <v>43.72358903645024</v>
       </c>
       <c r="S31" t="n">
-        <v>118.7897142775854</v>
+        <v>118.7897142775856</v>
       </c>
       <c r="T31" t="n">
-        <v>136.2585548558172</v>
+        <v>136.2585548558173</v>
       </c>
       <c r="U31" t="n">
-        <v>198.973729423095</v>
+        <v>198.9737294230952</v>
       </c>
       <c r="V31" t="n">
-        <v>116.7907635694882</v>
+        <v>164.848486510765</v>
       </c>
       <c r="W31" t="n">
-        <v>199.2338415235279</v>
+        <v>199.233841523528</v>
       </c>
       <c r="X31" t="n">
-        <v>138.4204985759741</v>
+        <v>138.4204985759742</v>
       </c>
       <c r="Y31" t="n">
-        <v>131.2954965390317</v>
+        <v>131.2954965390318</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>295.4446848504175</v>
+        <v>295.4446848504176</v>
       </c>
       <c r="C32" t="n">
-        <v>277.9837349579444</v>
+        <v>277.9837349579446</v>
       </c>
       <c r="D32" t="n">
-        <v>267.3938848076199</v>
+        <v>267.39388480762</v>
       </c>
       <c r="E32" t="n">
-        <v>294.6412132591987</v>
+        <v>294.6412132591988</v>
       </c>
       <c r="F32" t="n">
-        <v>319.5868889286484</v>
+        <v>319.5868889286485</v>
       </c>
       <c r="G32" t="n">
-        <v>325.7189540084038</v>
+        <v>325.718954008404</v>
       </c>
       <c r="H32" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761755</v>
       </c>
       <c r="I32" t="n">
-        <v>34.72313714970237</v>
+        <v>34.72313714970251</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.44210699121982</v>
+        <v>69.44210699121996</v>
       </c>
       <c r="T32" t="n">
-        <v>125.761964399536</v>
+        <v>125.7619643995362</v>
       </c>
       <c r="U32" t="n">
-        <v>163.8729259592799</v>
+        <v>163.8729259592801</v>
       </c>
       <c r="V32" t="n">
-        <v>240.4631016570718</v>
+        <v>240.4631016570719</v>
       </c>
       <c r="W32" t="n">
-        <v>261.9518119043499</v>
+        <v>261.9518119043501</v>
       </c>
       <c r="X32" t="n">
-        <v>282.441943865406</v>
+        <v>282.4419438654061</v>
       </c>
       <c r="Y32" t="n">
-        <v>298.9487818429905</v>
+        <v>298.9487818429906</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>92.5428233688742</v>
+        <v>44.48510042759406</v>
       </c>
       <c r="C34" t="n">
-        <v>79.95766428556473</v>
+        <v>79.95766428556487</v>
       </c>
       <c r="D34" t="n">
-        <v>13.26859326387279</v>
+        <v>61.3263162051494</v>
       </c>
       <c r="E34" t="n">
-        <v>59.14480583350607</v>
+        <v>59.14480583350621</v>
       </c>
       <c r="F34" t="n">
-        <v>58.13189120986814</v>
+        <v>58.13189120986829</v>
       </c>
       <c r="G34" t="n">
-        <v>79.67253200596133</v>
+        <v>79.67253200596147</v>
       </c>
       <c r="H34" t="n">
-        <v>65.78668708013306</v>
+        <v>65.78668708013322</v>
       </c>
       <c r="I34" t="n">
-        <v>37.20774443738825</v>
+        <v>37.20774443738839</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>43.7235890364501</v>
+        <v>43.72358903645024</v>
       </c>
       <c r="S34" t="n">
-        <v>118.7897142775854</v>
+        <v>118.7897142775856</v>
       </c>
       <c r="T34" t="n">
-        <v>136.2585548558172</v>
+        <v>136.2585548558173</v>
       </c>
       <c r="U34" t="n">
-        <v>198.973729423095</v>
+        <v>198.9737294230952</v>
       </c>
       <c r="V34" t="n">
-        <v>164.8484865107649</v>
+        <v>164.848486510765</v>
       </c>
       <c r="W34" t="n">
-        <v>199.2338415235279</v>
+        <v>199.233841523528</v>
       </c>
       <c r="X34" t="n">
-        <v>138.4204985759741</v>
+        <v>138.4204985759742</v>
       </c>
       <c r="Y34" t="n">
-        <v>131.2954965390317</v>
+        <v>131.2954965390318</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>295.4446848504176</v>
+        <v>295.4446848504174</v>
       </c>
       <c r="C35" t="n">
-        <v>277.9837349579445</v>
+        <v>277.9837349579444</v>
       </c>
       <c r="D35" t="n">
-        <v>267.3938848076199</v>
+        <v>267.3938848076198</v>
       </c>
       <c r="E35" t="n">
-        <v>294.6412132591988</v>
+        <v>294.6412132591987</v>
       </c>
       <c r="F35" t="n">
-        <v>319.5868889286484</v>
+        <v>319.5868889286483</v>
       </c>
       <c r="G35" t="n">
-        <v>325.7189540084039</v>
+        <v>325.7189540084038</v>
       </c>
       <c r="H35" t="n">
-        <v>228.6857996761755</v>
+        <v>228.6857996761753</v>
       </c>
       <c r="I35" t="n">
-        <v>34.72313714970245</v>
+        <v>34.72313714970232</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.4421069912199</v>
+        <v>69.44210699121976</v>
       </c>
       <c r="T35" t="n">
-        <v>125.7619643995361</v>
+        <v>125.761964399536</v>
       </c>
       <c r="U35" t="n">
-        <v>163.87292595928</v>
+        <v>163.8729259592799</v>
       </c>
       <c r="V35" t="n">
-        <v>240.4631016570719</v>
+        <v>240.4631016570718</v>
       </c>
       <c r="W35" t="n">
-        <v>261.95181190435</v>
+        <v>261.9518119043499</v>
       </c>
       <c r="X35" t="n">
-        <v>282.441943865406</v>
+        <v>282.4419438654059</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.9487818429906</v>
+        <v>298.9487818429905</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.54282336887428</v>
+        <v>44.48510042759791</v>
       </c>
       <c r="C37" t="n">
-        <v>79.95766428556482</v>
+        <v>79.95766428556469</v>
       </c>
       <c r="D37" t="n">
-        <v>61.32631620514934</v>
+        <v>61.32631620514921</v>
       </c>
       <c r="E37" t="n">
-        <v>59.14480583350615</v>
+        <v>59.14480583350603</v>
       </c>
       <c r="F37" t="n">
-        <v>58.13189120986823</v>
+        <v>58.1318912098681</v>
       </c>
       <c r="G37" t="n">
-        <v>79.67253200596141</v>
+        <v>79.67253200596129</v>
       </c>
       <c r="H37" t="n">
-        <v>65.78668708013316</v>
+        <v>65.78668708013302</v>
       </c>
       <c r="I37" t="n">
-        <v>37.20774443738833</v>
+        <v>37.2077444373882</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>43.72358903645006</v>
       </c>
       <c r="S37" t="n">
-        <v>118.7897142775855</v>
+        <v>118.7897142775854</v>
       </c>
       <c r="T37" t="n">
-        <v>136.2585548558173</v>
+        <v>136.2585548558171</v>
       </c>
       <c r="U37" t="n">
-        <v>198.9737294230951</v>
+        <v>198.973729423095</v>
       </c>
       <c r="V37" t="n">
-        <v>164.848486510765</v>
+        <v>164.8484865107649</v>
       </c>
       <c r="W37" t="n">
-        <v>194.8997076186998</v>
+        <v>199.2338415235279</v>
       </c>
       <c r="X37" t="n">
-        <v>138.4204985759741</v>
+        <v>138.420498575974</v>
       </c>
       <c r="Y37" t="n">
-        <v>131.2954965390318</v>
+        <v>131.2954965390317</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>295.4446848504176</v>
+        <v>295.4446848504175</v>
       </c>
       <c r="C38" t="n">
         <v>277.9837349579445</v>
@@ -3509,19 +3509,19 @@
         <v>267.3938848076199</v>
       </c>
       <c r="E38" t="n">
-        <v>294.6412132591988</v>
+        <v>294.6412132591987</v>
       </c>
       <c r="F38" t="n">
         <v>319.5868889286484</v>
       </c>
       <c r="G38" t="n">
-        <v>325.7189540084039</v>
+        <v>325.7189540084038</v>
       </c>
       <c r="H38" t="n">
-        <v>228.6857996761755</v>
+        <v>228.6857996761754</v>
       </c>
       <c r="I38" t="n">
-        <v>34.72313714970245</v>
+        <v>34.72313714970238</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.4421069912199</v>
+        <v>69.44210699121982</v>
       </c>
       <c r="T38" t="n">
         <v>125.7619643995361</v>
       </c>
       <c r="U38" t="n">
-        <v>163.87292595928</v>
+        <v>163.8729259592799</v>
       </c>
       <c r="V38" t="n">
-        <v>240.4631016570719</v>
+        <v>240.4631016570718</v>
       </c>
       <c r="W38" t="n">
-        <v>261.95181190435</v>
+        <v>261.9518119043499</v>
       </c>
       <c r="X38" t="n">
         <v>282.441943865406</v>
       </c>
       <c r="Y38" t="n">
-        <v>298.9487818429906</v>
+        <v>298.9487818429905</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.48510042759683</v>
+        <v>92.54282336887421</v>
       </c>
       <c r="C40" t="n">
-        <v>79.95766428556482</v>
+        <v>79.95766428556475</v>
       </c>
       <c r="D40" t="n">
-        <v>61.32631620514934</v>
+        <v>61.32631620514927</v>
       </c>
       <c r="E40" t="n">
-        <v>59.14480583350615</v>
+        <v>11.08708289223025</v>
       </c>
       <c r="F40" t="n">
-        <v>58.13189120986823</v>
+        <v>58.13189120986816</v>
       </c>
       <c r="G40" t="n">
-        <v>79.67253200596141</v>
+        <v>79.67253200596134</v>
       </c>
       <c r="H40" t="n">
-        <v>65.78668708013316</v>
+        <v>65.78668708013308</v>
       </c>
       <c r="I40" t="n">
-        <v>37.20774443738833</v>
+        <v>37.20774443738826</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>43.72358903645019</v>
+        <v>43.72358903645011</v>
       </c>
       <c r="S40" t="n">
-        <v>118.7897142775855</v>
+        <v>118.7897142775854</v>
       </c>
       <c r="T40" t="n">
-        <v>136.2585548558173</v>
+        <v>136.2585548558172</v>
       </c>
       <c r="U40" t="n">
         <v>198.9737294230951</v>
       </c>
       <c r="V40" t="n">
-        <v>164.848486510765</v>
+        <v>164.8484865107649</v>
       </c>
       <c r="W40" t="n">
-        <v>199.233841523528</v>
+        <v>199.2338415235279</v>
       </c>
       <c r="X40" t="n">
         <v>138.4204985759741</v>
       </c>
       <c r="Y40" t="n">
-        <v>131.2954965390318</v>
+        <v>131.2954965390317</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>390.111846105607</v>
       </c>
       <c r="H41" t="n">
-        <v>283.4130069581582</v>
+        <v>283.4130069581581</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>144.3505563827678</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>125.7192083023524</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>144.0654241031644</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.1795791773362</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>73.93761772442512</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>108.1164811336532</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.1826063747885</v>
       </c>
       <c r="T43" t="n">
-        <v>153.3167394494903</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>263.3666215202982</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>229.241378607968</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>263.626733620731</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>202.8133906731772</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>359.8375769476207</v>
+        <v>359.8375769476208</v>
       </c>
       <c r="C44" t="n">
-        <v>342.3766270551477</v>
+        <v>342.3766270551478</v>
       </c>
       <c r="D44" t="n">
-        <v>331.7867769048231</v>
+        <v>331.7867769048232</v>
       </c>
       <c r="E44" t="n">
-        <v>359.0341053564019</v>
+        <v>359.034105356402</v>
       </c>
       <c r="F44" t="n">
-        <v>383.9797810258515</v>
+        <v>383.9797810258517</v>
       </c>
       <c r="G44" t="n">
-        <v>390.111846105607</v>
+        <v>390.1118461056071</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>283.4130069581565</v>
       </c>
       <c r="I44" t="n">
-        <v>99.11602924690557</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>304.855993754275</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.7856879585298</v>
+        <v>326.3447040015532</v>
       </c>
       <c r="X44" t="n">
-        <v>346.8348359626091</v>
+        <v>346.8348359626092</v>
       </c>
       <c r="Y44" t="n">
-        <v>363.3416739401937</v>
+        <v>363.3416739401938</v>
       </c>
     </row>
     <row r="45">
@@ -4135,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>144.350556382768</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>125.7192083023526</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.1795791773364</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>101.6006365345915</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>153.3167394494897</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>263.3666215202982</v>
+        <v>117.6467712459156</v>
       </c>
       <c r="V46" t="n">
-        <v>229.2413786079681</v>
+        <v>229.2413786079682</v>
       </c>
       <c r="W46" t="n">
-        <v>263.6267336207311</v>
+        <v>263.6267336207312</v>
       </c>
       <c r="X46" t="n">
-        <v>202.8133906731773</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C2" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D2" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E2" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F2" t="n">
-        <v>341.056931913353</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4358,22 +4358,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="W2" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="X2" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259.2693145670932</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>259.2693145670932</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4410,22 +4410,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4443,16 +4443,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>843.096450557648</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>843.096450557648</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>635.2449503521152</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>427.4846515871612</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4468,10 +4468,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
         <v>19.28114311021272</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>730.8505943024719</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="C5" t="n">
-        <v>730.8505943024719</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="D5" t="n">
-        <v>730.8505943024719</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="E5" t="n">
-        <v>730.8505943024719</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
         <v>243.9530410142718</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>746.3079049238204</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>502.8591282797204</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>273.858482543704</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C6" t="n">
-        <v>273.858482543704</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D6" t="n">
-        <v>124.9240728824528</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
-        <v>124.9240728824528</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>124.9240728824528</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>124.9240728824528</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,16 +4650,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>878.7270069364331</v>
       </c>
       <c r="X6" t="n">
-        <v>481.618781308658</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="Y6" t="n">
-        <v>273.858482543704</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4762,13 +4762,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4838,16 +4838,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>784.1002736601483</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>540.6514970160482</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>297.2027203719481</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.75394372784808</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>380.2300195200815</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C9" t="n">
-        <v>205.7769902389545</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D9" t="n">
-        <v>56.84258057770322</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E9" t="n">
-        <v>56.84258057770322</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4923,10 +4923,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>756.2056553051034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>548.4453565401495</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="10">
@@ -4981,19 +4981,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
         <v>19.28114311021272</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1838.280930959698</v>
+        <v>1838.280930959699</v>
       </c>
       <c r="C11" t="n">
-        <v>1557.489279487026</v>
+        <v>1557.489279487028</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.394446348016</v>
+        <v>1287.394446348017</v>
       </c>
       <c r="E11" t="n">
-        <v>989.7770592175124</v>
+        <v>989.7770592175134</v>
       </c>
       <c r="F11" t="n">
-        <v>666.9620198956453</v>
+        <v>666.9620198956461</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9529754427123</v>
+        <v>337.9529754427126</v>
       </c>
       <c r="H11" t="n">
-        <v>106.9572181940502</v>
+        <v>106.9572181940506</v>
       </c>
       <c r="I11" t="n">
-        <v>71.88334228526006</v>
+        <v>71.88334228526011</v>
       </c>
       <c r="J11" t="n">
-        <v>252.8595824424916</v>
+        <v>252.8595824424918</v>
       </c>
       <c r="K11" t="n">
-        <v>644.840857435254</v>
+        <v>644.8408574352545</v>
       </c>
       <c r="L11" t="n">
         <v>1183.404917961336</v>
       </c>
       <c r="M11" t="n">
-        <v>1799.267750954547</v>
+        <v>1799.267750954548</v>
       </c>
       <c r="N11" t="n">
-        <v>2410.463890904545</v>
+        <v>2410.463890904547</v>
       </c>
       <c r="O11" t="n">
-        <v>2942.411436546641</v>
+        <v>2942.411436546643</v>
       </c>
       <c r="P11" t="n">
-        <v>3358.741976803207</v>
+        <v>3358.74197680321</v>
       </c>
       <c r="Q11" t="n">
-        <v>3594.167114263003</v>
+        <v>3594.167114263006</v>
       </c>
       <c r="R11" t="n">
-        <v>3594.167114263003</v>
+        <v>3594.167114263006</v>
       </c>
       <c r="S11" t="n">
-        <v>3524.023571847629</v>
+        <v>3524.023571847632</v>
       </c>
       <c r="T11" t="n">
-        <v>3396.991284575371</v>
+        <v>3396.991284575373</v>
       </c>
       <c r="U11" t="n">
-        <v>3231.463076535694</v>
+        <v>3231.463076535696</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.571054659863</v>
+        <v>2988.571054659866</v>
       </c>
       <c r="W11" t="n">
-        <v>2723.97326485749</v>
+        <v>2723.973264857492</v>
       </c>
       <c r="X11" t="n">
-        <v>2438.678372064151</v>
+        <v>2438.678372064152</v>
       </c>
       <c r="Y11" t="n">
-        <v>2136.709905556079</v>
+        <v>2136.709905556081</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>504.9026376407412</v>
       </c>
       <c r="F12" t="n">
-        <v>358.3680796676261</v>
+        <v>358.3680796676262</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8773891171312</v>
+        <v>220.8773891171313</v>
       </c>
       <c r="H12" t="n">
         <v>119.4853455286174</v>
       </c>
       <c r="I12" t="n">
-        <v>71.88334228526006</v>
+        <v>71.88334228526011</v>
       </c>
       <c r="J12" t="n">
-        <v>71.88334228526006</v>
+        <v>185.9781714285407</v>
       </c>
       <c r="K12" t="n">
-        <v>393.5104211629482</v>
+        <v>245.7846656637764</v>
       </c>
       <c r="L12" t="n">
-        <v>887.3821162476027</v>
+        <v>372.5244188980066</v>
       </c>
       <c r="M12" t="n">
-        <v>1515.686311628753</v>
+        <v>1000.828614279157</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.777912271499</v>
+        <v>1661.469165522021</v>
       </c>
       <c r="O12" t="n">
-        <v>2239.719271799697</v>
+        <v>2199.41052505022</v>
       </c>
       <c r="P12" t="n">
         <v>2436.0824370069</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>469.0246737158598</v>
+        <v>517.5678282020006</v>
       </c>
       <c r="C13" t="n">
-        <v>436.8025107418321</v>
+        <v>436.8025107418338</v>
       </c>
       <c r="D13" t="n">
-        <v>374.8567367972368</v>
+        <v>374.8567367972383</v>
       </c>
       <c r="E13" t="n">
-        <v>315.1145086825842</v>
+        <v>315.1145086825854</v>
       </c>
       <c r="F13" t="n">
-        <v>256.3954266524143</v>
+        <v>256.3954266524152</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9181215958877</v>
+        <v>175.9181215958883</v>
       </c>
       <c r="H13" t="n">
-        <v>109.4669225250462</v>
+        <v>109.4669225250465</v>
       </c>
       <c r="I13" t="n">
-        <v>71.88334228526006</v>
+        <v>71.88334228526011</v>
       </c>
       <c r="J13" t="n">
-        <v>137.9171519413134</v>
+        <v>137.9171519413133</v>
       </c>
       <c r="K13" t="n">
-        <v>320.6756181243584</v>
+        <v>320.6756181243581</v>
       </c>
       <c r="L13" t="n">
-        <v>585.903165714185</v>
+        <v>585.9031657141845</v>
       </c>
       <c r="M13" t="n">
-        <v>871.2399800945349</v>
+        <v>871.2399800945341</v>
       </c>
       <c r="N13" t="n">
-        <v>1157.281524847586</v>
+        <v>1157.281524847585</v>
       </c>
       <c r="O13" t="n">
-        <v>1412.067750491543</v>
+        <v>1412.067750491542</v>
       </c>
       <c r="P13" t="n">
-        <v>1619.032921438429</v>
+        <v>1619.032921438427</v>
       </c>
       <c r="Q13" t="n">
-        <v>1705.47592029275</v>
+        <v>1705.475920292748</v>
       </c>
       <c r="R13" t="n">
-        <v>1661.310678841791</v>
+        <v>1661.310678841788</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.321068460391</v>
+        <v>1541.321068460389</v>
       </c>
       <c r="T13" t="n">
-        <v>1403.686164565626</v>
+        <v>1403.686164565624</v>
       </c>
       <c r="U13" t="n">
-        <v>1202.702599491793</v>
+        <v>1202.70259949179</v>
       </c>
       <c r="V13" t="n">
-        <v>1036.188976753646</v>
+        <v>1084.732131239788</v>
       </c>
       <c r="W13" t="n">
-        <v>834.9426721844261</v>
+        <v>883.4858266705671</v>
       </c>
       <c r="X13" t="n">
-        <v>695.1239867541493</v>
+        <v>743.66714124029</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.5022730783589</v>
+        <v>611.0454275645001</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>989.7770592175129</v>
       </c>
       <c r="F14" t="n">
-        <v>666.9620198956457</v>
+        <v>666.9620198956458</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9529754427124</v>
+        <v>337.9529754427125</v>
       </c>
       <c r="H14" t="n">
         <v>106.9572181940504</v>
@@ -5306,19 +5306,19 @@
         <v>3524.023571847629</v>
       </c>
       <c r="T14" t="n">
-        <v>3396.99128457537</v>
+        <v>3396.991284575371</v>
       </c>
       <c r="U14" t="n">
-        <v>3231.463076535693</v>
+        <v>3231.463076535694</v>
       </c>
       <c r="V14" t="n">
-        <v>2988.571054659863</v>
+        <v>2988.571054659864</v>
       </c>
       <c r="W14" t="n">
         <v>2723.97326485749</v>
       </c>
       <c r="X14" t="n">
-        <v>2438.67837206415</v>
+        <v>2438.678372064151</v>
       </c>
       <c r="Y14" t="n">
         <v>2136.709905556079</v>
@@ -5355,22 +5355,22 @@
         <v>71.88334228526006</v>
       </c>
       <c r="J15" t="n">
-        <v>185.9781714285406</v>
+        <v>71.88334228526006</v>
       </c>
       <c r="K15" t="n">
-        <v>507.6052503062288</v>
+        <v>393.5104211629482</v>
       </c>
       <c r="L15" t="n">
-        <v>899.6558688002083</v>
+        <v>887.3821162476027</v>
       </c>
       <c r="M15" t="n">
-        <v>1527.960064181359</v>
+        <v>1297.307177743977</v>
       </c>
       <c r="N15" t="n">
-        <v>2188.600615424222</v>
+        <v>1483.398778386722</v>
       </c>
       <c r="O15" t="n">
-        <v>2336.618278868459</v>
+        <v>2021.340137914921</v>
       </c>
       <c r="P15" t="n">
         <v>2436.0824370069</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>469.0246737158596</v>
+        <v>469.0246737158591</v>
       </c>
       <c r="C16" t="n">
-        <v>388.2593562556931</v>
+        <v>388.2593562556926</v>
       </c>
       <c r="D16" t="n">
-        <v>326.3135823110979</v>
+        <v>374.8567367972371</v>
       </c>
       <c r="E16" t="n">
-        <v>266.5713541964453</v>
+        <v>315.1145086825845</v>
       </c>
       <c r="F16" t="n">
-        <v>256.3954266524144</v>
+        <v>256.3954266524145</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9181215958877</v>
+        <v>175.9181215958878</v>
       </c>
       <c r="H16" t="n">
-        <v>109.4669225250462</v>
+        <v>109.4669225250463</v>
       </c>
       <c r="I16" t="n">
         <v>71.88334228526006</v>
       </c>
       <c r="J16" t="n">
-        <v>137.9171519413136</v>
+        <v>137.9171519413134</v>
       </c>
       <c r="K16" t="n">
-        <v>320.6756181243586</v>
+        <v>320.6756181243583</v>
       </c>
       <c r="L16" t="n">
-        <v>585.9031657141852</v>
+        <v>585.9031657141849</v>
       </c>
       <c r="M16" t="n">
-        <v>871.2399800945351</v>
+        <v>871.2399800945346</v>
       </c>
       <c r="N16" t="n">
-        <v>1157.281524847587</v>
+        <v>1157.281524847586</v>
       </c>
       <c r="O16" t="n">
-        <v>1412.067750491543</v>
+        <v>1412.067750491542</v>
       </c>
       <c r="P16" t="n">
-        <v>1619.032921438429</v>
+        <v>1619.032921438428</v>
       </c>
       <c r="Q16" t="n">
         <v>1705.47592029275</v>
@@ -5461,25 +5461,25 @@
         <v>1661.31067884179</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.321068460391</v>
+        <v>1541.32106846039</v>
       </c>
       <c r="T16" t="n">
-        <v>1403.686164565626</v>
+        <v>1403.686164565625</v>
       </c>
       <c r="U16" t="n">
         <v>1202.702599491792</v>
       </c>
       <c r="V16" t="n">
-        <v>1036.188976753646</v>
+        <v>1036.188976753645</v>
       </c>
       <c r="W16" t="n">
-        <v>834.9426721844258</v>
+        <v>834.942672184425</v>
       </c>
       <c r="X16" t="n">
-        <v>695.123986754149</v>
+        <v>695.1239867541481</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.5022730783588</v>
+        <v>562.5022730783584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>1838.280930959698</v>
       </c>
       <c r="C17" t="n">
-        <v>1557.489279487027</v>
+        <v>1557.489279487026</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.394446348017</v>
+        <v>1287.394446348016</v>
       </c>
       <c r="E17" t="n">
-        <v>989.7770592175132</v>
+        <v>989.7770592175125</v>
       </c>
       <c r="F17" t="n">
-        <v>666.9620198956461</v>
+        <v>666.9620198956454</v>
       </c>
       <c r="G17" t="n">
-        <v>337.9529754427128</v>
+        <v>337.9529754427122</v>
       </c>
       <c r="H17" t="n">
-        <v>106.9572181940508</v>
+        <v>106.9572181940504</v>
       </c>
       <c r="I17" t="n">
         <v>71.88334228526006</v>
       </c>
       <c r="J17" t="n">
-        <v>252.8595824424916</v>
+        <v>252.8595824424921</v>
       </c>
       <c r="K17" t="n">
-        <v>644.840857435254</v>
+        <v>644.8408574352544</v>
       </c>
       <c r="L17" t="n">
         <v>1183.404917961336</v>
@@ -5543,7 +5543,7 @@
         <v>3524.023571847629</v>
       </c>
       <c r="T17" t="n">
-        <v>3396.991284575371</v>
+        <v>3396.99128457537</v>
       </c>
       <c r="U17" t="n">
         <v>3231.463076535694</v>
@@ -5592,22 +5592,22 @@
         <v>71.88334228526006</v>
       </c>
       <c r="J18" t="n">
-        <v>185.9781714285406</v>
+        <v>71.88334228526006</v>
       </c>
       <c r="K18" t="n">
-        <v>507.6052503062288</v>
+        <v>393.5104211629482</v>
       </c>
       <c r="L18" t="n">
-        <v>1001.476945390883</v>
+        <v>887.3821162476027</v>
       </c>
       <c r="M18" t="n">
-        <v>1168.733127659534</v>
+        <v>1515.686311628753</v>
       </c>
       <c r="N18" t="n">
-        <v>1483.398778386722</v>
+        <v>1701.777912271499</v>
       </c>
       <c r="O18" t="n">
-        <v>2021.340137914921</v>
+        <v>2239.719271799697</v>
       </c>
       <c r="P18" t="n">
         <v>2436.0824370069</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>517.5678282019985</v>
+        <v>469.0246737158591</v>
       </c>
       <c r="C19" t="n">
-        <v>436.8025107418321</v>
+        <v>388.2593562556926</v>
       </c>
       <c r="D19" t="n">
-        <v>374.8567367972368</v>
+        <v>326.3135823110973</v>
       </c>
       <c r="E19" t="n">
-        <v>315.1145086825842</v>
+        <v>315.1145086825845</v>
       </c>
       <c r="F19" t="n">
-        <v>256.3954266524143</v>
+        <v>256.3954266524145</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9181215958877</v>
+        <v>175.9181215958878</v>
       </c>
       <c r="H19" t="n">
-        <v>109.4669225250461</v>
+        <v>109.4669225250463</v>
       </c>
       <c r="I19" t="n">
         <v>71.88334228526006</v>
@@ -5674,49 +5674,49 @@
         <v>137.9171519413134</v>
       </c>
       <c r="K19" t="n">
-        <v>320.6756181243584</v>
+        <v>320.6756181243582</v>
       </c>
       <c r="L19" t="n">
-        <v>585.903165714185</v>
+        <v>585.9031657141848</v>
       </c>
       <c r="M19" t="n">
-        <v>871.2399800945349</v>
+        <v>871.2399800945345</v>
       </c>
       <c r="N19" t="n">
         <v>1157.281524847586</v>
       </c>
       <c r="O19" t="n">
-        <v>1412.067750491543</v>
+        <v>1412.067750491542</v>
       </c>
       <c r="P19" t="n">
-        <v>1619.032921438429</v>
+        <v>1619.032921438428</v>
       </c>
       <c r="Q19" t="n">
-        <v>1705.47592029275</v>
+        <v>1705.475920292749</v>
       </c>
       <c r="R19" t="n">
         <v>1661.31067884179</v>
       </c>
       <c r="S19" t="n">
-        <v>1541.321068460391</v>
+        <v>1541.32106846039</v>
       </c>
       <c r="T19" t="n">
-        <v>1403.686164565626</v>
+        <v>1403.686164565625</v>
       </c>
       <c r="U19" t="n">
-        <v>1202.702599491793</v>
+        <v>1202.702599491791</v>
       </c>
       <c r="V19" t="n">
-        <v>1036.188976753646</v>
+        <v>1036.188976753645</v>
       </c>
       <c r="W19" t="n">
-        <v>834.9426721844262</v>
+        <v>834.9426721844249</v>
       </c>
       <c r="X19" t="n">
-        <v>695.1239867541494</v>
+        <v>695.1239867541479</v>
       </c>
       <c r="Y19" t="n">
-        <v>611.0454275644977</v>
+        <v>562.5022730783584</v>
       </c>
     </row>
     <row r="20">
@@ -5738,25 +5738,25 @@
         <v>989.7770592175129</v>
       </c>
       <c r="F20" t="n">
-        <v>666.9620198956457</v>
+        <v>666.9620198956459</v>
       </c>
       <c r="G20" t="n">
-        <v>337.9529754427124</v>
+        <v>337.9529754427126</v>
       </c>
       <c r="H20" t="n">
-        <v>106.9572181940503</v>
+        <v>106.9572181940504</v>
       </c>
       <c r="I20" t="n">
-        <v>71.88334228526006</v>
+        <v>71.88334228526007</v>
       </c>
       <c r="J20" t="n">
-        <v>252.859582442492</v>
+        <v>252.8595824424918</v>
       </c>
       <c r="K20" t="n">
-        <v>644.8408574352543</v>
+        <v>644.8408574352542</v>
       </c>
       <c r="L20" t="n">
-        <v>1183.404917961336</v>
+        <v>1183.404917961335</v>
       </c>
       <c r="M20" t="n">
         <v>1799.267750954547</v>
@@ -5777,7 +5777,7 @@
         <v>3594.167114263003</v>
       </c>
       <c r="S20" t="n">
-        <v>3524.023571847629</v>
+        <v>3524.02357184763</v>
       </c>
       <c r="T20" t="n">
         <v>3396.991284575371</v>
@@ -5817,37 +5817,37 @@
         <v>504.9026376407412</v>
       </c>
       <c r="F21" t="n">
-        <v>358.3680796676261</v>
+        <v>358.3680796676262</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8773891171312</v>
+        <v>220.8773891171313</v>
       </c>
       <c r="H21" t="n">
         <v>119.4853455286174</v>
       </c>
       <c r="I21" t="n">
-        <v>71.88334228526006</v>
+        <v>71.88334228526007</v>
       </c>
       <c r="J21" t="n">
-        <v>185.9781714285406</v>
+        <v>71.88334228526007</v>
       </c>
       <c r="K21" t="n">
-        <v>507.6052503062288</v>
+        <v>383.1078021366624</v>
       </c>
       <c r="L21" t="n">
-        <v>1001.476945390883</v>
+        <v>876.9794972213169</v>
       </c>
       <c r="M21" t="n">
-        <v>1168.733127659534</v>
+        <v>1505.283692602467</v>
       </c>
       <c r="N21" t="n">
-        <v>1483.398778386722</v>
+        <v>1691.375293245213</v>
       </c>
       <c r="O21" t="n">
-        <v>2021.340137914921</v>
+        <v>2229.316652773412</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.0824370069</v>
+        <v>2644.058951865391</v>
       </c>
       <c r="Q21" t="n">
         <v>2660.628911095451</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>517.5678282019989</v>
+        <v>469.024673715859</v>
       </c>
       <c r="C22" t="n">
-        <v>436.8025107418324</v>
+        <v>388.2593562556925</v>
       </c>
       <c r="D22" t="n">
         <v>374.8567367972371</v>
@@ -5902,10 +5902,10 @@
         <v>175.9181215958878</v>
       </c>
       <c r="H22" t="n">
-        <v>109.4669225250462</v>
+        <v>109.4669225250463</v>
       </c>
       <c r="I22" t="n">
-        <v>71.88334228526006</v>
+        <v>71.88334228526007</v>
       </c>
       <c r="J22" t="n">
         <v>137.9171519413134</v>
@@ -5917,7 +5917,7 @@
         <v>585.9031657141849</v>
       </c>
       <c r="M22" t="n">
-        <v>871.2399800945346</v>
+        <v>871.2399800945348</v>
       </c>
       <c r="N22" t="n">
         <v>1157.281524847586</v>
@@ -5932,7 +5932,7 @@
         <v>1705.475920292749</v>
       </c>
       <c r="R22" t="n">
-        <v>1661.31067884179</v>
+        <v>1661.310678841789</v>
       </c>
       <c r="S22" t="n">
         <v>1541.32106846039</v>
@@ -5972,25 +5972,25 @@
         <v>1287.394446348017</v>
       </c>
       <c r="E23" t="n">
-        <v>989.7770592175127</v>
+        <v>989.7770592175131</v>
       </c>
       <c r="F23" t="n">
-        <v>666.9620198956457</v>
+        <v>666.962019895646</v>
       </c>
       <c r="G23" t="n">
-        <v>337.9529754427124</v>
+        <v>337.9529754427123</v>
       </c>
       <c r="H23" t="n">
         <v>106.9572181940503</v>
       </c>
       <c r="I23" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526007</v>
       </c>
       <c r="J23" t="n">
-        <v>252.8595824424917</v>
+        <v>252.8595824424915</v>
       </c>
       <c r="K23" t="n">
-        <v>644.8408574352542</v>
+        <v>644.8408574352538</v>
       </c>
       <c r="L23" t="n">
         <v>1183.404917961335</v>
@@ -5999,16 +5999,16 @@
         <v>1799.267750954547</v>
       </c>
       <c r="N23" t="n">
-        <v>2410.463890904544</v>
+        <v>2410.463890904545</v>
       </c>
       <c r="O23" t="n">
-        <v>2942.41143654664</v>
+        <v>2942.411436546641</v>
       </c>
       <c r="P23" t="n">
-        <v>3358.741976803206</v>
+        <v>3358.741976803207</v>
       </c>
       <c r="Q23" t="n">
-        <v>3594.167114263002</v>
+        <v>3594.167114263003</v>
       </c>
       <c r="R23" t="n">
         <v>3594.167114263003</v>
@@ -6023,7 +6023,7 @@
         <v>3231.463076535694</v>
       </c>
       <c r="V23" t="n">
-        <v>2988.571054659864</v>
+        <v>2988.571054659863</v>
       </c>
       <c r="W23" t="n">
         <v>2723.97326485749</v>
@@ -6054,37 +6054,37 @@
         <v>504.9026376407412</v>
       </c>
       <c r="F24" t="n">
-        <v>358.3680796676261</v>
+        <v>358.3680796676262</v>
       </c>
       <c r="G24" t="n">
-        <v>220.8773891171312</v>
+        <v>220.8773891171313</v>
       </c>
       <c r="H24" t="n">
         <v>119.4853455286174</v>
       </c>
       <c r="I24" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526007</v>
       </c>
       <c r="J24" t="n">
-        <v>185.9781714285406</v>
+        <v>71.88334228526007</v>
       </c>
       <c r="K24" t="n">
-        <v>507.6052503062288</v>
+        <v>383.1078021366624</v>
       </c>
       <c r="L24" t="n">
-        <v>634.3450035404587</v>
+        <v>876.9794972213169</v>
       </c>
       <c r="M24" t="n">
-        <v>1262.649198921609</v>
+        <v>1505.283692602467</v>
       </c>
       <c r="N24" t="n">
-        <v>1923.289750164473</v>
+        <v>1691.375293245213</v>
       </c>
       <c r="O24" t="n">
-        <v>2071.307413608709</v>
+        <v>2229.316652773412</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.0824370069</v>
+        <v>2644.058951865391</v>
       </c>
       <c r="Q24" t="n">
         <v>2660.628911095451</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>469.0246737158606</v>
+        <v>469.0246737158611</v>
       </c>
       <c r="C25" t="n">
-        <v>388.2593562556942</v>
+        <v>388.2593562556947</v>
       </c>
       <c r="D25" t="n">
-        <v>374.8567367972368</v>
+        <v>374.8567367972367</v>
       </c>
       <c r="E25" t="n">
-        <v>315.1145086825842</v>
+        <v>315.1145086825841</v>
       </c>
       <c r="F25" t="n">
-        <v>256.3954266524143</v>
+        <v>256.3954266524142</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9181215958877</v>
+        <v>175.9181215958876</v>
       </c>
       <c r="H25" t="n">
         <v>109.4669225250462</v>
       </c>
       <c r="I25" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526007</v>
       </c>
       <c r="J25" t="n">
-        <v>137.9171519413134</v>
+        <v>137.9171519413135</v>
       </c>
       <c r="K25" t="n">
-        <v>320.6756181243584</v>
+        <v>320.6756181243585</v>
       </c>
       <c r="L25" t="n">
-        <v>585.903165714185</v>
+        <v>585.9031657141854</v>
       </c>
       <c r="M25" t="n">
-        <v>871.2399800945349</v>
+        <v>871.2399800945352</v>
       </c>
       <c r="N25" t="n">
-        <v>1157.281524847586</v>
+        <v>1157.281524847587</v>
       </c>
       <c r="O25" t="n">
         <v>1412.067750491543</v>
@@ -6166,10 +6166,10 @@
         <v>1619.032921438429</v>
       </c>
       <c r="Q25" t="n">
-        <v>1705.47592029275</v>
+        <v>1705.475920292751</v>
       </c>
       <c r="R25" t="n">
-        <v>1661.31067884179</v>
+        <v>1661.310678841791</v>
       </c>
       <c r="S25" t="n">
         <v>1541.321068460391</v>
@@ -6178,19 +6178,19 @@
         <v>1403.686164565626</v>
       </c>
       <c r="U25" t="n">
-        <v>1202.702599491792</v>
+        <v>1202.702599491793</v>
       </c>
       <c r="V25" t="n">
-        <v>1036.188976753646</v>
+        <v>1036.188976753647</v>
       </c>
       <c r="W25" t="n">
-        <v>834.9426721844258</v>
+        <v>834.9426721844266</v>
       </c>
       <c r="X25" t="n">
-        <v>695.123986754149</v>
+        <v>695.1239867541497</v>
       </c>
       <c r="Y25" t="n">
-        <v>562.5022730783598</v>
+        <v>562.5022730783603</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>1838.280930959698</v>
       </c>
       <c r="C26" t="n">
-        <v>1557.489279487026</v>
+        <v>1557.489279487027</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.394446348016</v>
+        <v>1287.394446348017</v>
       </c>
       <c r="E26" t="n">
-        <v>989.7770592175125</v>
+        <v>989.7770592175132</v>
       </c>
       <c r="F26" t="n">
-        <v>666.9620198956454</v>
+        <v>666.9620198956461</v>
       </c>
       <c r="G26" t="n">
-        <v>337.9529754427122</v>
+        <v>337.9529754427128</v>
       </c>
       <c r="H26" t="n">
-        <v>106.9572181940504</v>
+        <v>106.9572181940507</v>
       </c>
       <c r="I26" t="n">
         <v>71.88334228526006</v>
       </c>
       <c r="J26" t="n">
-        <v>252.859582442492</v>
+        <v>252.8595824424916</v>
       </c>
       <c r="K26" t="n">
-        <v>644.8408574352543</v>
+        <v>644.840857435254</v>
       </c>
       <c r="L26" t="n">
         <v>1183.404917961336</v>
@@ -6254,22 +6254,22 @@
         <v>3524.023571847629</v>
       </c>
       <c r="T26" t="n">
-        <v>3396.99128457537</v>
+        <v>3396.991284575371</v>
       </c>
       <c r="U26" t="n">
-        <v>3231.463076535694</v>
+        <v>3231.463076535695</v>
       </c>
       <c r="V26" t="n">
-        <v>2988.571054659863</v>
+        <v>2988.571054659864</v>
       </c>
       <c r="W26" t="n">
         <v>2723.97326485749</v>
       </c>
       <c r="X26" t="n">
-        <v>2438.67837206415</v>
+        <v>2438.678372064151</v>
       </c>
       <c r="Y26" t="n">
-        <v>2136.709905556079</v>
+        <v>2136.70990555608</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>469.0246737158596</v>
+        <v>517.567828201999</v>
       </c>
       <c r="C28" t="n">
-        <v>388.2593562556931</v>
+        <v>436.8025107418325</v>
       </c>
       <c r="D28" t="n">
-        <v>326.3135823110978</v>
+        <v>374.8567367972372</v>
       </c>
       <c r="E28" t="n">
-        <v>266.5713541964452</v>
+        <v>315.1145086825844</v>
       </c>
       <c r="F28" t="n">
-        <v>207.8522721662752</v>
+        <v>256.3954266524145</v>
       </c>
       <c r="G28" t="n">
         <v>175.9181215958878</v>
       </c>
       <c r="H28" t="n">
-        <v>109.4669225250463</v>
+        <v>109.4669225250462</v>
       </c>
       <c r="I28" t="n">
         <v>71.88334228526006</v>
@@ -6385,13 +6385,13 @@
         <v>137.9171519413134</v>
       </c>
       <c r="K28" t="n">
-        <v>320.6756181243583</v>
+        <v>320.6756181243582</v>
       </c>
       <c r="L28" t="n">
-        <v>585.9031657141849</v>
+        <v>585.9031657141848</v>
       </c>
       <c r="M28" t="n">
-        <v>871.2399800945346</v>
+        <v>871.2399800945345</v>
       </c>
       <c r="N28" t="n">
         <v>1157.281524847586</v>
@@ -6403,10 +6403,10 @@
         <v>1619.032921438428</v>
       </c>
       <c r="Q28" t="n">
-        <v>1705.47592029275</v>
+        <v>1705.475920292749</v>
       </c>
       <c r="R28" t="n">
-        <v>1661.31067884179</v>
+        <v>1661.310678841789</v>
       </c>
       <c r="S28" t="n">
         <v>1541.32106846039</v>
@@ -6421,13 +6421,13 @@
         <v>1036.188976753645</v>
       </c>
       <c r="W28" t="n">
-        <v>834.9426721844251</v>
+        <v>834.942672184425</v>
       </c>
       <c r="X28" t="n">
-        <v>695.1239867541482</v>
+        <v>695.1239867541481</v>
       </c>
       <c r="Y28" t="n">
-        <v>562.5022730783589</v>
+        <v>562.5022730783588</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1838.280930959697</v>
+        <v>1838.280930959698</v>
       </c>
       <c r="C29" t="n">
-        <v>1557.489279487026</v>
+        <v>1557.489279487027</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.394446348016</v>
+        <v>1287.394446348017</v>
       </c>
       <c r="E29" t="n">
-        <v>989.7770592175121</v>
+        <v>989.7770592175131</v>
       </c>
       <c r="F29" t="n">
-        <v>666.9620198956451</v>
+        <v>666.9620198956459</v>
       </c>
       <c r="G29" t="n">
-        <v>337.9529754427123</v>
+        <v>337.9529754427126</v>
       </c>
       <c r="H29" t="n">
-        <v>106.9572181940503</v>
+        <v>106.9572181940505</v>
       </c>
       <c r="I29" t="n">
         <v>71.88334228526006</v>
       </c>
       <c r="J29" t="n">
-        <v>252.8595824424916</v>
+        <v>252.859582442492</v>
       </c>
       <c r="K29" t="n">
-        <v>644.840857435254</v>
+        <v>644.8408574352543</v>
       </c>
       <c r="L29" t="n">
-        <v>1183.404917961335</v>
+        <v>1183.404917961336</v>
       </c>
       <c r="M29" t="n">
         <v>1799.267750954547</v>
@@ -6476,10 +6476,10 @@
         <v>2410.463890904545</v>
       </c>
       <c r="O29" t="n">
-        <v>2942.41143654664</v>
+        <v>2942.411436546641</v>
       </c>
       <c r="P29" t="n">
-        <v>3358.741976803206</v>
+        <v>3358.741976803207</v>
       </c>
       <c r="Q29" t="n">
         <v>3594.167114263003</v>
@@ -6488,25 +6488,25 @@
         <v>3594.167114263003</v>
       </c>
       <c r="S29" t="n">
-        <v>3524.023571847628</v>
+        <v>3524.023571847629</v>
       </c>
       <c r="T29" t="n">
-        <v>3396.99128457537</v>
+        <v>3396.991284575371</v>
       </c>
       <c r="U29" t="n">
-        <v>3231.463076535693</v>
+        <v>3231.463076535695</v>
       </c>
       <c r="V29" t="n">
-        <v>2988.571054659863</v>
+        <v>2988.571054659864</v>
       </c>
       <c r="W29" t="n">
-        <v>2723.973264857489</v>
+        <v>2723.97326485749</v>
       </c>
       <c r="X29" t="n">
-        <v>2438.67837206415</v>
+        <v>2438.678372064151</v>
       </c>
       <c r="Y29" t="n">
-        <v>2136.709905556078</v>
+        <v>2136.70990555608</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>71.88334228526006</v>
       </c>
       <c r="J30" t="n">
-        <v>185.9781714285406</v>
+        <v>71.88334228526006</v>
       </c>
       <c r="K30" t="n">
-        <v>507.6052503062288</v>
+        <v>131.6898365204955</v>
       </c>
       <c r="L30" t="n">
-        <v>634.3450035404587</v>
+        <v>625.56153160515</v>
       </c>
       <c r="M30" t="n">
-        <v>1262.649198921609</v>
+        <v>1253.8657269863</v>
       </c>
       <c r="N30" t="n">
-        <v>1923.289750164473</v>
+        <v>1914.506278229164</v>
       </c>
       <c r="O30" t="n">
-        <v>2071.307413608709</v>
+        <v>2452.447637757362</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.0824370069</v>
+        <v>2644.058951865391</v>
       </c>
       <c r="Q30" t="n">
         <v>2660.628911095451</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>517.5678282019983</v>
+        <v>469.0246737158575</v>
       </c>
       <c r="C31" t="n">
-        <v>436.8025107418319</v>
+        <v>436.8025107418327</v>
       </c>
       <c r="D31" t="n">
-        <v>374.8567367972367</v>
+        <v>374.8567367972374</v>
       </c>
       <c r="E31" t="n">
-        <v>315.1145086825841</v>
+        <v>315.1145086825846</v>
       </c>
       <c r="F31" t="n">
-        <v>256.3954266524142</v>
+        <v>256.3954266524146</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9181215958876</v>
+        <v>175.9181215958879</v>
       </c>
       <c r="H31" t="n">
-        <v>109.4669225250461</v>
+        <v>109.4669225250463</v>
       </c>
       <c r="I31" t="n">
         <v>71.88334228526006</v>
       </c>
       <c r="J31" t="n">
-        <v>137.9171519413135</v>
+        <v>137.9171519413133</v>
       </c>
       <c r="K31" t="n">
-        <v>320.6756181243585</v>
+        <v>320.6756181243582</v>
       </c>
       <c r="L31" t="n">
-        <v>585.9031657141851</v>
+        <v>585.9031657141846</v>
       </c>
       <c r="M31" t="n">
-        <v>871.239980094535</v>
+        <v>871.2399800945343</v>
       </c>
       <c r="N31" t="n">
-        <v>1157.281524847587</v>
+        <v>1157.281524847586</v>
       </c>
       <c r="O31" t="n">
-        <v>1412.067750491543</v>
+        <v>1412.067750491542</v>
       </c>
       <c r="P31" t="n">
-        <v>1619.032921438429</v>
+        <v>1619.032921438428</v>
       </c>
       <c r="Q31" t="n">
-        <v>1705.47592029275</v>
+        <v>1705.475920292749</v>
       </c>
       <c r="R31" t="n">
-        <v>1661.310678841791</v>
+        <v>1661.310678841789</v>
       </c>
       <c r="S31" t="n">
-        <v>1541.321068460391</v>
+        <v>1541.321068460389</v>
       </c>
       <c r="T31" t="n">
-        <v>1403.686164565626</v>
+        <v>1403.686164565624</v>
       </c>
       <c r="U31" t="n">
-        <v>1202.702599491792</v>
+        <v>1202.702599491791</v>
       </c>
       <c r="V31" t="n">
-        <v>1084.732131239784</v>
+        <v>1036.188976753645</v>
       </c>
       <c r="W31" t="n">
-        <v>883.4858266705639</v>
+        <v>834.9426721844243</v>
       </c>
       <c r="X31" t="n">
-        <v>743.667141240287</v>
+        <v>695.1239867541474</v>
       </c>
       <c r="Y31" t="n">
-        <v>611.0454275644975</v>
+        <v>562.5022730783568</v>
       </c>
     </row>
     <row r="32">
@@ -6683,28 +6683,28 @@
         <v>1287.394446348017</v>
       </c>
       <c r="E32" t="n">
-        <v>989.7770592175131</v>
+        <v>989.7770592175126</v>
       </c>
       <c r="F32" t="n">
-        <v>666.962019895646</v>
+        <v>666.9620198956454</v>
       </c>
       <c r="G32" t="n">
-        <v>337.9529754427123</v>
+        <v>337.9529754427122</v>
       </c>
       <c r="H32" t="n">
-        <v>106.9572181940503</v>
+        <v>106.9572181940505</v>
       </c>
       <c r="I32" t="n">
         <v>71.88334228526006</v>
       </c>
       <c r="J32" t="n">
-        <v>252.859582442492</v>
+        <v>252.8595824424916</v>
       </c>
       <c r="K32" t="n">
-        <v>644.8408574352543</v>
+        <v>644.840857435254</v>
       </c>
       <c r="L32" t="n">
-        <v>1183.404917961336</v>
+        <v>1183.404917961335</v>
       </c>
       <c r="M32" t="n">
         <v>1799.267750954547</v>
@@ -6713,10 +6713,10 @@
         <v>2410.463890904545</v>
       </c>
       <c r="O32" t="n">
-        <v>2942.411436546641</v>
+        <v>2942.41143654664</v>
       </c>
       <c r="P32" t="n">
-        <v>3358.741976803207</v>
+        <v>3358.741976803206</v>
       </c>
       <c r="Q32" t="n">
         <v>3594.167114263003</v>
@@ -6734,7 +6734,7 @@
         <v>3231.463076535694</v>
       </c>
       <c r="V32" t="n">
-        <v>2988.571054659863</v>
+        <v>2988.571054659864</v>
       </c>
       <c r="W32" t="n">
         <v>2723.97326485749</v>
@@ -6777,22 +6777,22 @@
         <v>71.88334228526006</v>
       </c>
       <c r="J33" t="n">
-        <v>185.9781714285406</v>
+        <v>71.88334228526006</v>
       </c>
       <c r="K33" t="n">
-        <v>383.1078021366624</v>
+        <v>131.6898365204955</v>
       </c>
       <c r="L33" t="n">
-        <v>876.9794972213169</v>
+        <v>625.56153160515</v>
       </c>
       <c r="M33" t="n">
-        <v>1505.283692602467</v>
+        <v>1253.8657269863</v>
       </c>
       <c r="N33" t="n">
-        <v>1691.375293245213</v>
+        <v>1914.506278229164</v>
       </c>
       <c r="O33" t="n">
-        <v>2229.316652773412</v>
+        <v>2452.447637757362</v>
       </c>
       <c r="P33" t="n">
         <v>2644.058951865391</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>469.0246737158604</v>
+        <v>517.5678282020001</v>
       </c>
       <c r="C34" t="n">
-        <v>388.2593562556941</v>
+        <v>436.8025107418336</v>
       </c>
       <c r="D34" t="n">
-        <v>374.8567367972367</v>
+        <v>374.8567367972382</v>
       </c>
       <c r="E34" t="n">
-        <v>315.1145086825841</v>
+        <v>315.1145086825854</v>
       </c>
       <c r="F34" t="n">
-        <v>256.3954266524142</v>
+        <v>256.3954266524154</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9181215958877</v>
+        <v>175.918121595888</v>
       </c>
       <c r="H34" t="n">
-        <v>109.4669225250462</v>
+        <v>109.4669225250463</v>
       </c>
       <c r="I34" t="n">
         <v>71.88334228526006</v>
       </c>
       <c r="J34" t="n">
-        <v>137.9171519413134</v>
+        <v>137.9171519413133</v>
       </c>
       <c r="K34" t="n">
-        <v>320.6756181243584</v>
+        <v>320.6756181243582</v>
       </c>
       <c r="L34" t="n">
-        <v>585.9031657141851</v>
+        <v>585.9031657141846</v>
       </c>
       <c r="M34" t="n">
-        <v>871.2399800945349</v>
+        <v>871.2399800945343</v>
       </c>
       <c r="N34" t="n">
         <v>1157.281524847586</v>
       </c>
       <c r="O34" t="n">
-        <v>1412.067750491543</v>
+        <v>1412.067750491542</v>
       </c>
       <c r="P34" t="n">
-        <v>1619.032921438429</v>
+        <v>1619.032921438428</v>
       </c>
       <c r="Q34" t="n">
-        <v>1705.47592029275</v>
+        <v>1705.475920292749</v>
       </c>
       <c r="R34" t="n">
-        <v>1661.31067884179</v>
+        <v>1661.310678841789</v>
       </c>
       <c r="S34" t="n">
-        <v>1541.321068460391</v>
+        <v>1541.32106846039</v>
       </c>
       <c r="T34" t="n">
-        <v>1403.686164565626</v>
+        <v>1403.686164565625</v>
       </c>
       <c r="U34" t="n">
-        <v>1202.702599491793</v>
+        <v>1202.702599491791</v>
       </c>
       <c r="V34" t="n">
-        <v>1036.188976753646</v>
+        <v>1036.188976753645</v>
       </c>
       <c r="W34" t="n">
-        <v>834.9426721844261</v>
+        <v>834.9426721844245</v>
       </c>
       <c r="X34" t="n">
-        <v>695.1239867541493</v>
+        <v>695.1239867541475</v>
       </c>
       <c r="Y34" t="n">
-        <v>562.5022730783596</v>
+        <v>562.5022730783578</v>
       </c>
     </row>
     <row r="35">
@@ -6923,52 +6923,52 @@
         <v>989.7770592175125</v>
       </c>
       <c r="F35" t="n">
-        <v>666.9620198956454</v>
+        <v>666.9620198956455</v>
       </c>
       <c r="G35" t="n">
-        <v>337.9529754427122</v>
+        <v>337.9529754427124</v>
       </c>
       <c r="H35" t="n">
-        <v>106.9572181940503</v>
+        <v>106.9572181940502</v>
       </c>
       <c r="I35" t="n">
-        <v>71.88334228526006</v>
+        <v>71.88334228526001</v>
       </c>
       <c r="J35" t="n">
-        <v>252.8595824424916</v>
+        <v>252.8595824424893</v>
       </c>
       <c r="K35" t="n">
-        <v>644.840857435254</v>
+        <v>644.8408574352517</v>
       </c>
       <c r="L35" t="n">
-        <v>1183.404917961336</v>
+        <v>1183.404917961333</v>
       </c>
       <c r="M35" t="n">
-        <v>1799.267750954547</v>
+        <v>1799.267750954545</v>
       </c>
       <c r="N35" t="n">
-        <v>2410.463890904545</v>
+        <v>2410.463890904542</v>
       </c>
       <c r="O35" t="n">
-        <v>2942.411436546641</v>
+        <v>2942.411436546638</v>
       </c>
       <c r="P35" t="n">
-        <v>3358.741976803207</v>
+        <v>3358.741976803205</v>
       </c>
       <c r="Q35" t="n">
-        <v>3594.167114263003</v>
+        <v>3594.167114263001</v>
       </c>
       <c r="R35" t="n">
-        <v>3594.167114263003</v>
+        <v>3594.167114263001</v>
       </c>
       <c r="S35" t="n">
-        <v>3524.023571847629</v>
+        <v>3524.023571847627</v>
       </c>
       <c r="T35" t="n">
-        <v>3396.99128457537</v>
+        <v>3396.991284575369</v>
       </c>
       <c r="U35" t="n">
-        <v>3231.463076535693</v>
+        <v>3231.463076535692</v>
       </c>
       <c r="V35" t="n">
         <v>2988.571054659863</v>
@@ -7011,28 +7011,28 @@
         <v>119.4853455286174</v>
       </c>
       <c r="I36" t="n">
-        <v>71.88334228526006</v>
+        <v>71.88334228526001</v>
       </c>
       <c r="J36" t="n">
-        <v>185.9781714285406</v>
+        <v>71.88334228526001</v>
       </c>
       <c r="K36" t="n">
-        <v>507.6052503062288</v>
+        <v>131.6898365204954</v>
       </c>
       <c r="L36" t="n">
-        <v>634.3450035404587</v>
+        <v>625.5615316051499</v>
       </c>
       <c r="M36" t="n">
-        <v>1262.649198921609</v>
+        <v>1253.8657269863</v>
       </c>
       <c r="N36" t="n">
-        <v>1923.289750164473</v>
+        <v>1914.506278229164</v>
       </c>
       <c r="O36" t="n">
-        <v>2336.618278868459</v>
+        <v>2452.447637757362</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.0824370069</v>
+        <v>2644.058951865391</v>
       </c>
       <c r="Q36" t="n">
         <v>2660.628911095451</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>517.567828201999</v>
+        <v>517.5678282019978</v>
       </c>
       <c r="C37" t="n">
-        <v>436.8025107418325</v>
+        <v>436.8025107418315</v>
       </c>
       <c r="D37" t="n">
-        <v>374.8567367972371</v>
+        <v>374.8567367972363</v>
       </c>
       <c r="E37" t="n">
-        <v>315.1145086825844</v>
+        <v>315.1145086825837</v>
       </c>
       <c r="F37" t="n">
-        <v>256.3954266524145</v>
+        <v>256.3954266524139</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9181215958878</v>
+        <v>175.9181215958875</v>
       </c>
       <c r="H37" t="n">
-        <v>109.4669225250462</v>
+        <v>109.4669225250461</v>
       </c>
       <c r="I37" t="n">
-        <v>71.88334228526006</v>
+        <v>71.88334228526001</v>
       </c>
       <c r="J37" t="n">
-        <v>137.9171519413134</v>
+        <v>137.9171519413135</v>
       </c>
       <c r="K37" t="n">
-        <v>320.6756181243582</v>
+        <v>320.6756181243585</v>
       </c>
       <c r="L37" t="n">
-        <v>585.9031657141848</v>
+        <v>585.9031657141852</v>
       </c>
       <c r="M37" t="n">
-        <v>871.2399800945346</v>
+        <v>871.2399800945352</v>
       </c>
       <c r="N37" t="n">
-        <v>1157.281524847586</v>
+        <v>1157.281524847587</v>
       </c>
       <c r="O37" t="n">
-        <v>1412.067750491542</v>
+        <v>1412.067750491543</v>
       </c>
       <c r="P37" t="n">
-        <v>1619.032921438428</v>
+        <v>1619.032921438429</v>
       </c>
       <c r="Q37" t="n">
-        <v>1705.475920292749</v>
+        <v>1705.475920292751</v>
       </c>
       <c r="R37" t="n">
-        <v>1705.475920292749</v>
+        <v>1661.310678841791</v>
       </c>
       <c r="S37" t="n">
-        <v>1585.48630991135</v>
+        <v>1541.321068460392</v>
       </c>
       <c r="T37" t="n">
-        <v>1447.851406016585</v>
+        <v>1403.686164565625</v>
       </c>
       <c r="U37" t="n">
-        <v>1246.867840942752</v>
+        <v>1202.702599491792</v>
       </c>
       <c r="V37" t="n">
-        <v>1080.354218204605</v>
+        <v>1036.188976753646</v>
       </c>
       <c r="W37" t="n">
-        <v>883.4858266705648</v>
+        <v>834.9426721844259</v>
       </c>
       <c r="X37" t="n">
-        <v>743.6671412402879</v>
+        <v>695.1239867541491</v>
       </c>
       <c r="Y37" t="n">
-        <v>611.0454275644983</v>
+        <v>562.5022730783594</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1287.394446348017</v>
       </c>
       <c r="E38" t="n">
-        <v>989.7770592175129</v>
+        <v>989.7770592175132</v>
       </c>
       <c r="F38" t="n">
-        <v>666.9620198956458</v>
+        <v>666.9620198956463</v>
       </c>
       <c r="G38" t="n">
-        <v>337.9529754427125</v>
+        <v>337.9529754427124</v>
       </c>
       <c r="H38" t="n">
-        <v>106.9572181940504</v>
+        <v>106.9572181940503</v>
       </c>
       <c r="I38" t="n">
         <v>71.88334228526006</v>
@@ -7251,22 +7251,22 @@
         <v>71.88334228526006</v>
       </c>
       <c r="J39" t="n">
-        <v>185.9781714285406</v>
+        <v>71.88334228526006</v>
       </c>
       <c r="K39" t="n">
-        <v>507.6052503062288</v>
+        <v>131.6898365204955</v>
       </c>
       <c r="L39" t="n">
-        <v>1001.476945390883</v>
+        <v>625.56153160515</v>
       </c>
       <c r="M39" t="n">
-        <v>1168.733127659534</v>
+        <v>1138.036368097396</v>
       </c>
       <c r="N39" t="n">
-        <v>1483.398778386722</v>
+        <v>1798.67691934026</v>
       </c>
       <c r="O39" t="n">
-        <v>2021.340137914921</v>
+        <v>2336.618278868459</v>
       </c>
       <c r="P39" t="n">
         <v>2436.0824370069</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>517.5678282019989</v>
+        <v>469.0246737158611</v>
       </c>
       <c r="C40" t="n">
-        <v>436.8025107418324</v>
+        <v>388.2593562556947</v>
       </c>
       <c r="D40" t="n">
-        <v>374.8567367972371</v>
+        <v>326.3135823110995</v>
       </c>
       <c r="E40" t="n">
-        <v>315.1145086825844</v>
+        <v>315.1145086825841</v>
       </c>
       <c r="F40" t="n">
-        <v>256.3954266524145</v>
+        <v>256.3954266524142</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9181215958878</v>
+        <v>175.9181215958876</v>
       </c>
       <c r="H40" t="n">
-        <v>109.4669225250463</v>
+        <v>109.4669225250462</v>
       </c>
       <c r="I40" t="n">
         <v>71.88334228526006</v>
       </c>
       <c r="J40" t="n">
-        <v>137.9171519413134</v>
+        <v>137.9171519413137</v>
       </c>
       <c r="K40" t="n">
-        <v>320.6756181243582</v>
+        <v>320.6756181243587</v>
       </c>
       <c r="L40" t="n">
-        <v>585.9031657141848</v>
+        <v>585.9031657141853</v>
       </c>
       <c r="M40" t="n">
-        <v>871.2399800945349</v>
+        <v>871.239980094535</v>
       </c>
       <c r="N40" t="n">
-        <v>1157.281524847586</v>
+        <v>1157.281524847587</v>
       </c>
       <c r="O40" t="n">
-        <v>1412.067750491542</v>
+        <v>1412.067750491543</v>
       </c>
       <c r="P40" t="n">
-        <v>1619.032921438428</v>
+        <v>1619.032921438429</v>
       </c>
       <c r="Q40" t="n">
         <v>1705.47592029275</v>
@@ -7357,25 +7357,25 @@
         <v>1661.31067884179</v>
       </c>
       <c r="S40" t="n">
-        <v>1541.32106846039</v>
+        <v>1541.321068460391</v>
       </c>
       <c r="T40" t="n">
-        <v>1403.686164565625</v>
+        <v>1403.686164565626</v>
       </c>
       <c r="U40" t="n">
         <v>1202.702599491793</v>
       </c>
       <c r="V40" t="n">
-        <v>1036.188976753646</v>
+        <v>1036.188976753647</v>
       </c>
       <c r="W40" t="n">
-        <v>834.9426721844259</v>
+        <v>834.9426721844268</v>
       </c>
       <c r="X40" t="n">
-        <v>695.123986754149</v>
+        <v>695.1239867541499</v>
       </c>
       <c r="Y40" t="n">
-        <v>562.5022730783593</v>
+        <v>562.5022730783603</v>
       </c>
     </row>
     <row r="41">
@@ -7388,25 +7388,25 @@
         <v>2183.703689159996</v>
       </c>
       <c r="C41" t="n">
-        <v>1837.868712336615</v>
+        <v>1837.868712336614</v>
       </c>
       <c r="D41" t="n">
-        <v>1502.730553846895</v>
+        <v>1502.730553846894</v>
       </c>
       <c r="E41" t="n">
-        <v>1140.069841365681</v>
+        <v>1140.06984136568</v>
       </c>
       <c r="F41" t="n">
-        <v>752.2114766931031</v>
+        <v>752.2114766931027</v>
       </c>
       <c r="G41" t="n">
-        <v>358.1591068894603</v>
+        <v>358.1591068894601</v>
       </c>
       <c r="H41" t="n">
-        <v>71.88334228526006</v>
+        <v>71.88334228526004</v>
       </c>
       <c r="I41" t="n">
-        <v>71.88334228526006</v>
+        <v>71.88334228526004</v>
       </c>
       <c r="J41" t="n">
         <v>252.8595824424916</v>
@@ -7418,7 +7418,7 @@
         <v>1183.404917961335</v>
       </c>
       <c r="M41" t="n">
-        <v>1799.267750954546</v>
+        <v>1799.267750954547</v>
       </c>
       <c r="N41" t="n">
         <v>2410.463890904544</v>
@@ -7430,25 +7430,25 @@
         <v>3358.741976803206</v>
       </c>
       <c r="Q41" t="n">
-        <v>3594.167114263003</v>
+        <v>3594.167114263002</v>
       </c>
       <c r="R41" t="n">
-        <v>3594.167114263003</v>
+        <v>3594.167114263002</v>
       </c>
       <c r="S41" t="n">
-        <v>3594.167114263003</v>
+        <v>3594.167114263002</v>
       </c>
       <c r="T41" t="n">
-        <v>3594.167114263003</v>
+        <v>3594.167114263002</v>
       </c>
       <c r="U41" t="n">
-        <v>3594.167114263003</v>
+        <v>3594.167114263002</v>
       </c>
       <c r="V41" t="n">
-        <v>3594.167114263003</v>
+        <v>3594.167114263002</v>
       </c>
       <c r="W41" t="n">
-        <v>3264.525999109919</v>
+        <v>3264.525999109918</v>
       </c>
       <c r="X41" t="n">
         <v>2914.187780965869</v>
@@ -7485,28 +7485,28 @@
         <v>119.4853455286174</v>
       </c>
       <c r="I42" t="n">
-        <v>71.88334228526006</v>
+        <v>71.88334228526004</v>
       </c>
       <c r="J42" t="n">
-        <v>185.9781714285406</v>
+        <v>71.88334228526004</v>
       </c>
       <c r="K42" t="n">
-        <v>507.6052503062288</v>
+        <v>383.1078021366624</v>
       </c>
       <c r="L42" t="n">
-        <v>1001.476945390883</v>
+        <v>876.9794972213169</v>
       </c>
       <c r="M42" t="n">
-        <v>1168.733127659534</v>
+        <v>1505.283692602467</v>
       </c>
       <c r="N42" t="n">
-        <v>1483.398778386722</v>
+        <v>1691.375293245213</v>
       </c>
       <c r="O42" t="n">
-        <v>2021.340137914921</v>
+        <v>2229.316652773412</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.0824370069</v>
+        <v>2644.058951865391</v>
       </c>
       <c r="Q42" t="n">
         <v>2660.628911095451</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.88334228526006</v>
+        <v>696.3807015681348</v>
       </c>
       <c r="C43" t="n">
-        <v>71.88334228526006</v>
+        <v>550.5720587572582</v>
       </c>
       <c r="D43" t="n">
-        <v>71.88334228526006</v>
+        <v>423.5829594619528</v>
       </c>
       <c r="E43" t="n">
-        <v>71.88334228526006</v>
+        <v>423.5829594619528</v>
       </c>
       <c r="F43" t="n">
-        <v>71.88334228526006</v>
+        <v>423.5829594619528</v>
       </c>
       <c r="G43" t="n">
-        <v>71.88334228526006</v>
+        <v>278.0623290547159</v>
       </c>
       <c r="H43" t="n">
-        <v>71.88334228526006</v>
+        <v>146.5678046331642</v>
       </c>
       <c r="I43" t="n">
-        <v>71.88334228526006</v>
+        <v>71.88334228526004</v>
       </c>
       <c r="J43" t="n">
-        <v>74.16818876508235</v>
+        <v>74.16818876508236</v>
       </c>
       <c r="K43" t="n">
         <v>193.1776917718962</v>
       </c>
       <c r="L43" t="n">
-        <v>394.6562761854917</v>
+        <v>394.6562761854918</v>
       </c>
       <c r="M43" t="n">
-        <v>616.2441273896105</v>
+        <v>616.2441273896106</v>
       </c>
       <c r="N43" t="n">
         <v>838.536708966431</v>
@@ -7591,28 +7591,28 @@
         <v>1195.484214882901</v>
       </c>
       <c r="R43" t="n">
-        <v>1195.484214882901</v>
+        <v>1086.275648081231</v>
       </c>
       <c r="S43" t="n">
-        <v>1195.484214882901</v>
+        <v>901.2427123491218</v>
       </c>
       <c r="T43" t="n">
-        <v>1040.618821499578</v>
+        <v>901.2427123491218</v>
       </c>
       <c r="U43" t="n">
-        <v>774.5919310750342</v>
+        <v>901.2427123491218</v>
       </c>
       <c r="V43" t="n">
-        <v>543.0349829861775</v>
+        <v>901.2427123491218</v>
       </c>
       <c r="W43" t="n">
-        <v>276.7453530662472</v>
+        <v>901.2427123491218</v>
       </c>
       <c r="X43" t="n">
-        <v>71.88334228526006</v>
+        <v>696.3807015681348</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.88334228526006</v>
+        <v>696.3807015681348</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1997.545125815297</v>
+        <v>2183.703689159996</v>
       </c>
       <c r="C44" t="n">
-        <v>1651.710148991916</v>
+        <v>1837.868712336614</v>
       </c>
       <c r="D44" t="n">
-        <v>1316.571990502195</v>
+        <v>1502.730553846893</v>
       </c>
       <c r="E44" t="n">
-        <v>953.9112780209812</v>
+        <v>1140.069841365679</v>
       </c>
       <c r="F44" t="n">
-        <v>566.0529133484038</v>
+        <v>752.2114766931018</v>
       </c>
       <c r="G44" t="n">
-        <v>172.0005435447606</v>
+        <v>358.1591068894585</v>
       </c>
       <c r="H44" t="n">
-        <v>172.0005435447606</v>
+        <v>71.88334228526004</v>
       </c>
       <c r="I44" t="n">
         <v>71.88334228526004</v>
       </c>
       <c r="J44" t="n">
-        <v>252.8595824424917</v>
+        <v>252.8595824424916</v>
       </c>
       <c r="K44" t="n">
-        <v>644.8408574352542</v>
+        <v>644.840857435254</v>
       </c>
       <c r="L44" t="n">
         <v>1183.404917961335</v>
@@ -7658,7 +7658,7 @@
         <v>1799.267750954547</v>
       </c>
       <c r="N44" t="n">
-        <v>2410.463890904544</v>
+        <v>2410.463890904545</v>
       </c>
       <c r="O44" t="n">
         <v>2942.41143654664</v>
@@ -7667,7 +7667,7 @@
         <v>3358.741976803206</v>
       </c>
       <c r="Q44" t="n">
-        <v>3594.167114263002</v>
+        <v>3594.167114263003</v>
       </c>
       <c r="R44" t="n">
         <v>3594.167114263002</v>
@@ -7682,16 +7682,16 @@
         <v>3594.167114263002</v>
       </c>
       <c r="V44" t="n">
-        <v>3286.231767036462</v>
+        <v>3594.167114263002</v>
       </c>
       <c r="W44" t="n">
-        <v>3078.36743576522</v>
+        <v>3264.525999109918</v>
       </c>
       <c r="X44" t="n">
-        <v>2728.02921762117</v>
+        <v>2914.187780965869</v>
       </c>
       <c r="Y44" t="n">
-        <v>2361.017425762388</v>
+        <v>2547.175989107087</v>
       </c>
     </row>
     <row r="45">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.88334228526004</v>
+        <v>578.8025144034909</v>
       </c>
       <c r="C46" t="n">
-        <v>71.88334228526004</v>
+        <v>432.9938715926141</v>
       </c>
       <c r="D46" t="n">
-        <v>71.88334228526004</v>
+        <v>306.0047722973084</v>
       </c>
       <c r="E46" t="n">
-        <v>71.88334228526004</v>
+        <v>306.0047722973084</v>
       </c>
       <c r="F46" t="n">
-        <v>71.88334228526004</v>
+        <v>306.0047722973084</v>
       </c>
       <c r="G46" t="n">
-        <v>71.88334228526004</v>
+        <v>306.0047722973084</v>
       </c>
       <c r="H46" t="n">
-        <v>71.88334228526004</v>
+        <v>174.5102478757565</v>
       </c>
       <c r="I46" t="n">
         <v>71.88334228526004</v>
       </c>
       <c r="J46" t="n">
-        <v>74.16818876508229</v>
+        <v>74.16818876508218</v>
       </c>
       <c r="K46" t="n">
-        <v>193.1776917718961</v>
+        <v>193.1776917718959</v>
       </c>
       <c r="L46" t="n">
-        <v>394.6562761854916</v>
+        <v>394.6562761854913</v>
       </c>
       <c r="M46" t="n">
-        <v>616.2441273896104</v>
+        <v>616.2441273896098</v>
       </c>
       <c r="N46" t="n">
-        <v>838.5367089664306</v>
+        <v>838.5367089664301</v>
       </c>
       <c r="O46" t="n">
-        <v>1029.573971434156</v>
+        <v>1029.573971434155</v>
       </c>
       <c r="P46" t="n">
-        <v>1172.790179204811</v>
+        <v>1172.79017920481</v>
       </c>
       <c r="Q46" t="n">
-        <v>1195.484214882901</v>
+        <v>1195.4842148829</v>
       </c>
       <c r="R46" t="n">
-        <v>1195.484214882901</v>
+        <v>1195.4842148829</v>
       </c>
       <c r="S46" t="n">
-        <v>1195.484214882901</v>
+        <v>1195.4842148829</v>
       </c>
       <c r="T46" t="n">
-        <v>1040.618821499578</v>
+        <v>1195.4842148829</v>
       </c>
       <c r="U46" t="n">
-        <v>774.5919310750343</v>
+        <v>1076.649092412278</v>
       </c>
       <c r="V46" t="n">
-        <v>543.0349829861776</v>
+        <v>845.0921443234215</v>
       </c>
       <c r="W46" t="n">
-        <v>276.7453530662472</v>
+        <v>578.8025144034909</v>
       </c>
       <c r="X46" t="n">
-        <v>71.88334228526004</v>
+        <v>578.8025144034909</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.88334228526004</v>
+        <v>578.8025144034909</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8073,10 +8073,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,19 +8298,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>10.843733175479</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>97.87778491794097</v>
+        <v>138.5936907254932</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>10.843733175479</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>267.9907729896461</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>245.1200800280036</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720742</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>10.843733175479</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,16 +9249,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>129.8727778630737</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>97.87778491794097</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>10.84373317547897</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>253.9575410264312</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>129.8727778630737</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>10.84373317547897</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>253.9575410264312</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>267.990772989646</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>10.843733175479</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>267.990772989646</v>
+        <v>93.07793532281525</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>10.843733175479</v>
       </c>
       <c r="K33" t="n">
-        <v>138.7102388615014</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,13 +10437,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>93.07793532281525</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720715</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>10.843733175479</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>267.9907729896459</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>93.07793532281525</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>10.843733175479</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>348.7057113369658</v>
       </c>
       <c r="N39" t="n">
-        <v>129.8727778630737</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.66121455045</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>10.843733175479</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>253.9575410264313</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>129.8727778630737</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>48.05772294127735</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>48.05772294128275</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>48.05772294127848</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>48.05772294127758</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>48.05772294127848</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.05772294127672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
         <v>48.05772294127848</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>48.0577229412765</v>
+        <v>48.0577229412758</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>48.05772294127803</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>48.05772294127792</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>48.05772294128039</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>48.05772294127668</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>48.05772294128028</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>48.05772294127647</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>48.05772294127623</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.72358903645019</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>4.33413390482815</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.05772294127746</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>48.05772294127583</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>9.665684815220313</v>
+        <v>9.665684815220478</v>
       </c>
       <c r="I41" t="n">
-        <v>99.11602924690551</v>
+        <v>99.11602924690548</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.834999088423</v>
+        <v>133.8349990884229</v>
       </c>
       <c r="T41" t="n">
-        <v>190.1548564967392</v>
+        <v>190.1548564967391</v>
       </c>
       <c r="U41" t="n">
         <v>228.2658180564831</v>
@@ -25786,10 +25786,10 @@
         <v>156.9357154660773</v>
       </c>
       <c r="C43" t="n">
-        <v>144.3505563827679</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>125.7192083023524</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>123.5376979307092</v>
@@ -25798,13 +25798,13 @@
         <v>122.5247833070713</v>
       </c>
       <c r="G43" t="n">
-        <v>144.0654241031645</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.1795791773362</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>101.6006365345914</v>
+        <v>27.66301881016624</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25831,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>108.1164811336533</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.1826063747886</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>47.33470750353013</v>
+        <v>200.6514469530203</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>263.3666215202982</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>229.241378607968</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>263.626733620731</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>293.0786917733786</v>
+        <v>9.665684815222139</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>99.11602924690565</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.834999088423</v>
+        <v>133.8349990884231</v>
       </c>
       <c r="T44" t="n">
-        <v>190.1548564967392</v>
+        <v>190.1548564967393</v>
       </c>
       <c r="U44" t="n">
-        <v>228.2658180564831</v>
+        <v>228.2658180564832</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>304.8559937542751</v>
       </c>
       <c r="W44" t="n">
-        <v>120.5590160430233</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.9357154660774</v>
+        <v>156.9357154660775</v>
       </c>
       <c r="C46" t="n">
-        <v>144.3505563827679</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>125.7192083023525</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>123.5376979307093</v>
+        <v>123.5376979307094</v>
       </c>
       <c r="F46" t="n">
-        <v>122.5247833070713</v>
+        <v>122.5247833070714</v>
       </c>
       <c r="G46" t="n">
-        <v>144.0654241031645</v>
+        <v>144.0654241031646</v>
       </c>
       <c r="H46" t="n">
-        <v>130.1795791773363</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>101.6006365345914</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>108.1164811336533</v>
+        <v>108.1164811336534</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1826063747886</v>
+        <v>183.1826063747887</v>
       </c>
       <c r="T46" t="n">
-        <v>47.33470750353069</v>
+        <v>200.6514469530205</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>145.7198502743827</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>202.8133906731773</v>
       </c>
       <c r="Y46" t="n">
-        <v>195.6883886362349</v>
+        <v>195.688388636235</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>798998.8874989748</v>
+        <v>798998.8874989747</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798998.8874989748</v>
+        <v>798998.8874989747</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>798998.8874989748</v>
+        <v>798998.8874989747</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693799.2048477945</v>
+        <v>693799.2048477944</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
         <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
+        <v>676407.9172237967</v>
+      </c>
+      <c r="F2" t="n">
+        <v>676407.9172237973</v>
+      </c>
+      <c r="G2" t="n">
         <v>676407.9172237971</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>676407.9172237971</v>
+      </c>
+      <c r="I2" t="n">
+        <v>676407.9172237971</v>
+      </c>
+      <c r="J2" t="n">
         <v>676407.9172237972</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>676407.9172237972</v>
       </c>
-      <c r="H2" t="n">
-        <v>676407.9172237974</v>
-      </c>
-      <c r="I2" t="n">
-        <v>676407.9172237972</v>
-      </c>
-      <c r="J2" t="n">
-        <v>676407.9172237974</v>
-      </c>
-      <c r="K2" t="n">
-        <v>676407.9172237969</v>
-      </c>
       <c r="L2" t="n">
-        <v>676407.9172237972</v>
+        <v>676407.9172237973</v>
       </c>
       <c r="M2" t="n">
-        <v>676407.9172237972</v>
+        <v>676407.9172237971</v>
       </c>
       <c r="N2" t="n">
-        <v>676407.9172237973</v>
+        <v>676407.9172237971</v>
       </c>
       <c r="O2" t="n">
-        <v>582581.1732376091</v>
+        <v>582581.1732376087</v>
       </c>
       <c r="P2" t="n">
-        <v>582581.1732376091</v>
+        <v>582581.1732376092</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>724727.6731978385</v>
+        <v>724727.6731978389</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>132891.2680495567</v>
+        <v>132891.2680495564</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>1.364242052659392e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>163858.4805402312</v>
+        <v>163858.4805402314</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18317.01177268797</v>
+        <v>18317.01177268768</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>129697.4945620944</v>
+        <v>129697.4945620941</v>
       </c>
       <c r="F4" t="n">
-        <v>129697.4945620944</v>
+        <v>129697.4945620943</v>
       </c>
       <c r="G4" t="n">
-        <v>129697.4945620944</v>
+        <v>129697.4945620943</v>
       </c>
       <c r="H4" t="n">
-        <v>129697.4945620944</v>
+        <v>129697.4945620943</v>
       </c>
       <c r="I4" t="n">
         <v>129697.4945620944</v>
@@ -26442,22 +26442,22 @@
         <v>129697.4945620943</v>
       </c>
       <c r="K4" t="n">
+        <v>129697.4945620943</v>
+      </c>
+      <c r="L4" t="n">
+        <v>129697.4945620943</v>
+      </c>
+      <c r="M4" t="n">
         <v>129697.4945620944</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>129697.4945620944</v>
       </c>
-      <c r="M4" t="n">
-        <v>129697.4945620943</v>
-      </c>
-      <c r="N4" t="n">
-        <v>129697.4945620943</v>
-      </c>
       <c r="O4" t="n">
-        <v>64625.53281300474</v>
+        <v>64625.53281300476</v>
       </c>
       <c r="P4" t="n">
-        <v>64625.53281300468</v>
+        <v>64625.53281300458</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>74412.83916400388</v>
+        <v>74412.8391640039</v>
       </c>
       <c r="F5" t="n">
-        <v>74412.83916400388</v>
+        <v>74412.83916400386</v>
       </c>
       <c r="G5" t="n">
-        <v>74412.83916400388</v>
+        <v>74412.83916400386</v>
       </c>
       <c r="H5" t="n">
         <v>74412.83916400388</v>
       </c>
       <c r="I5" t="n">
-        <v>74412.83916400385</v>
+        <v>74412.83916400388</v>
       </c>
       <c r="J5" t="n">
         <v>74412.83916400386</v>
       </c>
       <c r="K5" t="n">
+        <v>74412.83916400386</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74412.83916400386</v>
+      </c>
+      <c r="M5" t="n">
+        <v>74412.83916400385</v>
+      </c>
+      <c r="N5" t="n">
         <v>74412.83916400388</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74412.83916400388</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74412.83916400386</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74412.83916400386</v>
       </c>
       <c r="O5" t="n">
         <v>68999.39311828409</v>
       </c>
       <c r="P5" t="n">
-        <v>68999.39311828409</v>
+        <v>68999.39311828408</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227345.806852369</v>
+        <v>227345.8068523689</v>
       </c>
       <c r="C6" t="n">
-        <v>308115.2383839164</v>
+        <v>308115.2383839165</v>
       </c>
       <c r="D6" t="n">
         <v>308115.2383839167</v>
       </c>
       <c r="E6" t="n">
-        <v>-252430.0897001397</v>
+        <v>-252432.9731635167</v>
       </c>
       <c r="F6" t="n">
-        <v>472297.583497699</v>
+        <v>472294.700034323</v>
       </c>
       <c r="G6" t="n">
-        <v>472297.583497699</v>
+        <v>472294.7000343224</v>
       </c>
       <c r="H6" t="n">
-        <v>472297.5834976992</v>
+        <v>472294.7000343224</v>
       </c>
       <c r="I6" t="n">
-        <v>472297.5834976989</v>
+        <v>472294.7000343223</v>
       </c>
       <c r="J6" t="n">
-        <v>339406.3154481425</v>
+        <v>339403.4319847662</v>
       </c>
       <c r="K6" t="n">
-        <v>472297.5834976987</v>
+        <v>472294.7000343224</v>
       </c>
       <c r="L6" t="n">
-        <v>472297.5834976989</v>
+        <v>472294.7000343227</v>
       </c>
       <c r="M6" t="n">
-        <v>308439.1029574678</v>
+        <v>308436.2194940909</v>
       </c>
       <c r="N6" t="n">
-        <v>472297.5834976991</v>
+        <v>472294.7000343223</v>
       </c>
       <c r="O6" t="n">
-        <v>430639.2355336322</v>
+        <v>430352.028603631</v>
       </c>
       <c r="P6" t="n">
-        <v>448956.2473063204</v>
+        <v>448669.0403763193</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="F2" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="G2" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="H2" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="I2" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J2" t="n">
         <v>87.28915681306302</v>
       </c>
       <c r="K2" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="L2" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="M2" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="N2" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="O2" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="P2" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>570.7883900499463</v>
+        <v>570.7883900499469</v>
       </c>
       <c r="F3" t="n">
         <v>570.7883900499463</v>
@@ -26753,10 +26753,10 @@
         <v>570.7883900499463</v>
       </c>
       <c r="H3" t="n">
-        <v>570.7883900499463</v>
+        <v>570.7883900499464</v>
       </c>
       <c r="I3" t="n">
-        <v>570.7883900499463</v>
+        <v>570.7883900499464</v>
       </c>
       <c r="J3" t="n">
         <v>570.7883900499463</v>
@@ -26796,7 +26796,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>898.5417785657507</v>
+        <v>898.5417785657514</v>
       </c>
       <c r="F4" t="n">
         <v>898.5417785657507</v>
@@ -26805,10 +26805,10 @@
         <v>898.5417785657507</v>
       </c>
       <c r="H4" t="n">
-        <v>898.5417785657507</v>
+        <v>898.5417785657509</v>
       </c>
       <c r="I4" t="n">
-        <v>898.5417785657505</v>
+        <v>898.5417785657509</v>
       </c>
       <c r="J4" t="n">
         <v>898.5417785657507</v>
@@ -26820,13 +26820,13 @@
         <v>898.5417785657507</v>
       </c>
       <c r="M4" t="n">
-        <v>898.5417785657507</v>
+        <v>898.5417785657502</v>
       </c>
       <c r="N4" t="n">
         <v>898.5417785657507</v>
       </c>
       <c r="O4" t="n">
-        <v>898.5417785657506</v>
+        <v>898.5417785657505</v>
       </c>
       <c r="P4" t="n">
         <v>898.5417785657505</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26926,25 +26926,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306272</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>22.89626471585996</v>
+        <v>22.8962647158596</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>570.7883900499463</v>
+        <v>570.7883900499469</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>657.5274896880917</v>
+        <v>657.5274896880924</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>657.5274896880917</v>
+        <v>657.5274896880918</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306272</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>1.70530256582424e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>657.5274896880917</v>
+        <v>657.5274896880924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>319.1698855250446</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>172.8041343964291</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27515,16 +27515,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>113.049489245967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>311.7191632230924</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,7 +27628,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.6599098510101</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>97.79216793965175</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>167.2181360724585</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27910,13 +27910,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>159.5856446526967</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -27938,10 +27938,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>52.95740108485735</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="10">
@@ -28053,7 +28053,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28062,13 +28062,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="C11" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="D11" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="E11" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="F11" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="G11" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="H11" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="I11" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>5.729273895019247</v>
+        <v>5.729273895019105</v>
       </c>
       <c r="S11" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="T11" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="U11" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="V11" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="W11" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="X11" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="Y11" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="C13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="D13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="E13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="F13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="G13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="H13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="I13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="J13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="K13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="L13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="M13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="N13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="O13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="P13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="R13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="S13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="T13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="U13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="V13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="W13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="X13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306279</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="C14" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="D14" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="E14" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="F14" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="G14" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="H14" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="I14" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>5.729273895019247</v>
       </c>
       <c r="S14" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="T14" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="U14" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="V14" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="W14" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="X14" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="Y14" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="C16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="D16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="E16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="F16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="G16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="H16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="I16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="J16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="K16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="L16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="M16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="N16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="O16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="P16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="R16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="S16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="T16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="U16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="V16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="W16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="X16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="C17" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="D17" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="E17" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="F17" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="G17" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="H17" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="I17" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>5.729273895019247</v>
       </c>
       <c r="S17" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="T17" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="U17" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="V17" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="W17" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="X17" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="Y17" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="C19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="D19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="E19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="F19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="G19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="H19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="I19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="J19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="K19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="L19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="M19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="N19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="O19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="P19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="R19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="S19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="T19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="U19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="V19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="W19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="X19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306302</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="C20" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="D20" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="E20" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="F20" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="G20" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="H20" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="I20" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>5.729273895019247</v>
+        <v>5.729273895019219</v>
       </c>
       <c r="S20" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="T20" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="U20" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="V20" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="W20" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="X20" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="Y20" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="C22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="D22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="E22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="F22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="G22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="H22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="I22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="J22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="K22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="L22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="M22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="N22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="O22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="P22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="Q22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="R22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="S22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="T22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="U22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="V22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="W22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="X22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
       <c r="Y22" t="n">
-        <v>87.28915681306303</v>
+        <v>87.28915681306302</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C23" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D23" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E23" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F23" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G23" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H23" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I23" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>5.729273895020598</v>
+        <v>5.729273895019219</v>
       </c>
       <c r="S23" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T23" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U23" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V23" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W23" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X23" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y23" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="K25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="L25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="M25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="N25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="O25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="P25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="R25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="S25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="C29" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="D29" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="E29" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="F29" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="G29" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="H29" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="I29" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>5.729273895019247</v>
       </c>
       <c r="S29" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="T29" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="U29" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="V29" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="W29" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="X29" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="Y29" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="C31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="D31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="E31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="F31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="G31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="H31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="I31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="J31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="K31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="L31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="M31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="N31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="O31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="P31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="Q31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="R31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="S31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="T31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="U31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="V31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="W31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="X31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="Y31" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="C32" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="D32" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="E32" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="F32" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="G32" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="H32" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="I32" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>5.729273895019247</v>
       </c>
       <c r="S32" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="T32" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="U32" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="V32" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="W32" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="X32" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="C34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="D34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="E34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="F34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="G34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="H34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="I34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="J34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="K34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="L34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="M34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="N34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="O34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="P34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="R34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="S34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="T34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="U34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="V34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="W34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="X34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.2891568130631</v>
+        <v>87.28915681306296</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="C35" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="D35" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="E35" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="F35" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="G35" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="H35" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="I35" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>5.729273895019247</v>
       </c>
       <c r="S35" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="T35" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="U35" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="V35" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="W35" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="X35" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="C37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="D37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="E37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="F37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="G37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="H37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="I37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="J37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="K37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="L37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="M37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="N37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="O37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="P37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="R37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="S37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="T37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="U37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="V37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="W37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="X37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306314</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C38" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D38" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E38" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F38" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G38" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H38" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I38" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>5.729273895019247</v>
       </c>
       <c r="S38" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T38" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U38" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V38" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W38" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X38" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="K40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="L40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="M40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="N40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="O40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="P40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="R40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="S40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.28915681306302</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="C41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="D41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="E41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="F41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="G41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="H41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="I41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>5.729273895019247</v>
       </c>
       <c r="S41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="T41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="U41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="V41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="W41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="X41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="Y41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="C43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="D43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="E43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="F43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="G43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="H43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="I43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="J43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="K43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="L43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="M43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="N43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="O43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="P43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="R43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="S43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="T43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="U43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="V43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="W43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="X43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
       <c r="Y43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585997</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="C44" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="D44" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="E44" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="F44" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="G44" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="H44" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="I44" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>5.729273895019247</v>
       </c>
       <c r="S44" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="T44" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="U44" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="V44" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="W44" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="X44" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="Y44" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="C46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="D46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="E46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="F46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="G46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="H46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="I46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="J46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="K46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="L46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="M46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="N46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="O46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="P46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="R46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="S46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="T46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="U46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="V46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="W46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="X46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
       <c r="Y46" t="n">
-        <v>22.8962647158599</v>
+        <v>22.8962647158598</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.294626693668124</v>
+        <v>2.294626693668127</v>
       </c>
       <c r="H11" t="n">
-        <v>23.49984562652868</v>
+        <v>23.49984562652871</v>
       </c>
       <c r="I11" t="n">
-        <v>88.46359560764044</v>
+        <v>88.46359560764053</v>
       </c>
       <c r="J11" t="n">
-        <v>194.7535723417151</v>
+        <v>194.7535723417153</v>
       </c>
       <c r="K11" t="n">
-        <v>291.8851202846869</v>
+        <v>291.8851202846872</v>
       </c>
       <c r="L11" t="n">
-        <v>362.1093019610328</v>
+        <v>362.1093019610332</v>
       </c>
       <c r="M11" t="n">
-        <v>402.9163694245533</v>
+        <v>402.9163694245537</v>
       </c>
       <c r="N11" t="n">
-        <v>409.4359775179379</v>
+        <v>409.4359775179383</v>
       </c>
       <c r="O11" t="n">
-        <v>386.6187833327755</v>
+        <v>386.6187833327758</v>
       </c>
       <c r="P11" t="n">
-        <v>329.9701868328436</v>
+        <v>329.9701868328439</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.7938683658538</v>
+        <v>247.7938683658541</v>
       </c>
       <c r="R11" t="n">
-        <v>144.1398440461304</v>
+        <v>144.1398440461306</v>
       </c>
       <c r="S11" t="n">
-        <v>52.28880578196243</v>
+        <v>52.28880578196248</v>
       </c>
       <c r="T11" t="n">
-        <v>10.04472835153222</v>
+        <v>10.04472835153223</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1835701354934499</v>
+        <v>0.1835701354934501</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.227733518220639</v>
+        <v>1.227733518220641</v>
       </c>
       <c r="H12" t="n">
-        <v>11.85732108386775</v>
+        <v>11.85732108386777</v>
       </c>
       <c r="I12" t="n">
-        <v>42.27064964049131</v>
+        <v>42.27064964049136</v>
       </c>
       <c r="J12" t="n">
-        <v>115.9938934911877</v>
+        <v>115.9938934911878</v>
       </c>
       <c r="K12" t="n">
-        <v>198.2520392119705</v>
+        <v>198.2520392119707</v>
       </c>
       <c r="L12" t="n">
-        <v>266.5743325417226</v>
+        <v>266.5743325417229</v>
       </c>
       <c r="M12" t="n">
-        <v>311.0796725772207</v>
+        <v>311.079672577221</v>
       </c>
       <c r="N12" t="n">
-        <v>319.3130258638846</v>
+        <v>319.3130258638849</v>
       </c>
       <c r="O12" t="n">
-        <v>292.1090358022589</v>
+        <v>292.1090358022591</v>
       </c>
       <c r="P12" t="n">
-        <v>234.4432540188166</v>
+        <v>234.4432540188169</v>
       </c>
       <c r="Q12" t="n">
-        <v>156.7191066416381</v>
+        <v>156.7191066416383</v>
       </c>
       <c r="R12" t="n">
-        <v>76.2271740523306</v>
+        <v>76.22717405233067</v>
       </c>
       <c r="S12" t="n">
-        <v>22.80461162133511</v>
+        <v>22.80461162133513</v>
       </c>
       <c r="T12" t="n">
-        <v>4.948627645810382</v>
+        <v>4.948627645810387</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08077194198819998</v>
+        <v>0.08077194198820006</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.029290539434329</v>
+        <v>1.02929053943433</v>
       </c>
       <c r="H13" t="n">
-        <v>9.151328614243408</v>
+        <v>9.151328614243416</v>
       </c>
       <c r="I13" t="n">
-        <v>30.95357367680693</v>
+        <v>30.95357367680696</v>
       </c>
       <c r="J13" t="n">
-        <v>72.77084113800707</v>
+        <v>72.77084113800716</v>
       </c>
       <c r="K13" t="n">
-        <v>119.5848463088248</v>
+        <v>119.5848463088249</v>
       </c>
       <c r="L13" t="n">
-        <v>153.0274316537184</v>
+        <v>153.0274316537186</v>
       </c>
       <c r="M13" t="n">
-        <v>161.3459706496922</v>
+        <v>161.3459706496923</v>
       </c>
       <c r="N13" t="n">
-        <v>157.5095240936189</v>
+        <v>157.509524093619</v>
       </c>
       <c r="O13" t="n">
-        <v>145.4855391556814</v>
+        <v>145.4855391556816</v>
       </c>
       <c r="P13" t="n">
-        <v>124.488012151221</v>
+        <v>124.4880121512211</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.18904689754189</v>
+        <v>86.18904689754197</v>
       </c>
       <c r="R13" t="n">
-        <v>46.28064552765628</v>
+        <v>46.28064552765633</v>
       </c>
       <c r="S13" t="n">
-        <v>17.93772694632371</v>
+        <v>17.93772694632373</v>
       </c>
       <c r="T13" t="n">
-        <v>4.397877759401224</v>
+        <v>4.397877759401228</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05614312033278166</v>
+        <v>0.05614312033278172</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,28 +32461,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.294626693668124</v>
+        <v>2.294626693668125</v>
       </c>
       <c r="H20" t="n">
-        <v>23.49984562652868</v>
+        <v>23.49984562652869</v>
       </c>
       <c r="I20" t="n">
-        <v>88.46359560764044</v>
+        <v>88.46359560764046</v>
       </c>
       <c r="J20" t="n">
-        <v>194.7535723417151</v>
+        <v>194.7535723417152</v>
       </c>
       <c r="K20" t="n">
         <v>291.8851202846869</v>
       </c>
       <c r="L20" t="n">
-        <v>362.1093019610328</v>
+        <v>362.1093019610329</v>
       </c>
       <c r="M20" t="n">
-        <v>402.9163694245533</v>
+        <v>402.9163694245534</v>
       </c>
       <c r="N20" t="n">
-        <v>409.4359775179379</v>
+        <v>409.435977517938</v>
       </c>
       <c r="O20" t="n">
         <v>386.6187833327755</v>
@@ -32491,13 +32491,13 @@
         <v>329.9701868328436</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.7938683658538</v>
+        <v>247.7938683658539</v>
       </c>
       <c r="R20" t="n">
-        <v>144.1398440461304</v>
+        <v>144.1398440461305</v>
       </c>
       <c r="S20" t="n">
-        <v>52.28880578196243</v>
+        <v>52.28880578196244</v>
       </c>
       <c r="T20" t="n">
         <v>10.04472835153222</v>
@@ -32543,46 +32543,46 @@
         <v>1.227733518220639</v>
       </c>
       <c r="H21" t="n">
-        <v>11.85732108386775</v>
+        <v>11.85732108386776</v>
       </c>
       <c r="I21" t="n">
-        <v>42.27064964049131</v>
+        <v>42.27064964049132</v>
       </c>
       <c r="J21" t="n">
         <v>115.9938934911877</v>
       </c>
       <c r="K21" t="n">
-        <v>198.2520392119705</v>
+        <v>198.2520392119706</v>
       </c>
       <c r="L21" t="n">
         <v>266.5743325417226</v>
       </c>
       <c r="M21" t="n">
-        <v>311.0796725772207</v>
+        <v>311.0796725772208</v>
       </c>
       <c r="N21" t="n">
-        <v>319.3130258638846</v>
+        <v>319.3130258638847</v>
       </c>
       <c r="O21" t="n">
         <v>292.1090358022589</v>
       </c>
       <c r="P21" t="n">
-        <v>234.4432540188166</v>
+        <v>234.4432540188167</v>
       </c>
       <c r="Q21" t="n">
         <v>156.7191066416381</v>
       </c>
       <c r="R21" t="n">
-        <v>76.2271740523306</v>
+        <v>76.22717405233061</v>
       </c>
       <c r="S21" t="n">
         <v>22.80461162133511</v>
       </c>
       <c r="T21" t="n">
-        <v>4.948627645810382</v>
+        <v>4.948627645810383</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08077194198819998</v>
+        <v>0.08077194198820001</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>1.029290539434329</v>
       </c>
       <c r="H22" t="n">
-        <v>9.151328614243408</v>
+        <v>9.151328614243409</v>
       </c>
       <c r="I22" t="n">
-        <v>30.95357367680693</v>
+        <v>30.95357367680694</v>
       </c>
       <c r="J22" t="n">
-        <v>72.77084113800707</v>
+        <v>72.77084113800709</v>
       </c>
       <c r="K22" t="n">
         <v>119.5848463088248</v>
@@ -32643,25 +32643,25 @@
         <v>157.5095240936189</v>
       </c>
       <c r="O22" t="n">
-        <v>145.4855391556814</v>
+        <v>145.4855391556815</v>
       </c>
       <c r="P22" t="n">
         <v>124.488012151221</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.18904689754189</v>
+        <v>86.18904689754191</v>
       </c>
       <c r="R22" t="n">
-        <v>46.28064552765628</v>
+        <v>46.2806455276563</v>
       </c>
       <c r="S22" t="n">
-        <v>17.93772694632371</v>
+        <v>17.93772694632372</v>
       </c>
       <c r="T22" t="n">
-        <v>4.397877759401224</v>
+        <v>4.397877759401225</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05614312033278166</v>
+        <v>0.05614312033278167</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,28 +32698,28 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.294626693668124</v>
+        <v>2.294626693668125</v>
       </c>
       <c r="H23" t="n">
-        <v>23.49984562652868</v>
+        <v>23.49984562652869</v>
       </c>
       <c r="I23" t="n">
-        <v>88.46359560764044</v>
+        <v>88.46359560764046</v>
       </c>
       <c r="J23" t="n">
-        <v>194.7535723417151</v>
+        <v>194.7535723417152</v>
       </c>
       <c r="K23" t="n">
         <v>291.8851202846869</v>
       </c>
       <c r="L23" t="n">
-        <v>362.1093019610328</v>
+        <v>362.1093019610329</v>
       </c>
       <c r="M23" t="n">
-        <v>402.9163694245533</v>
+        <v>402.9163694245534</v>
       </c>
       <c r="N23" t="n">
-        <v>409.4359775179379</v>
+        <v>409.435977517938</v>
       </c>
       <c r="O23" t="n">
         <v>386.6187833327755</v>
@@ -32728,13 +32728,13 @@
         <v>329.9701868328436</v>
       </c>
       <c r="Q23" t="n">
-        <v>247.7938683658538</v>
+        <v>247.7938683658539</v>
       </c>
       <c r="R23" t="n">
-        <v>144.1398440461304</v>
+        <v>144.1398440461305</v>
       </c>
       <c r="S23" t="n">
-        <v>52.28880578196243</v>
+        <v>52.28880578196244</v>
       </c>
       <c r="T23" t="n">
         <v>10.04472835153222</v>
@@ -32780,46 +32780,46 @@
         <v>1.227733518220639</v>
       </c>
       <c r="H24" t="n">
-        <v>11.85732108386775</v>
+        <v>11.85732108386776</v>
       </c>
       <c r="I24" t="n">
-        <v>42.27064964049131</v>
+        <v>42.27064964049132</v>
       </c>
       <c r="J24" t="n">
         <v>115.9938934911877</v>
       </c>
       <c r="K24" t="n">
-        <v>198.2520392119705</v>
+        <v>198.2520392119706</v>
       </c>
       <c r="L24" t="n">
         <v>266.5743325417226</v>
       </c>
       <c r="M24" t="n">
-        <v>311.0796725772207</v>
+        <v>311.0796725772208</v>
       </c>
       <c r="N24" t="n">
-        <v>319.3130258638846</v>
+        <v>319.3130258638847</v>
       </c>
       <c r="O24" t="n">
         <v>292.1090358022589</v>
       </c>
       <c r="P24" t="n">
-        <v>234.4432540188166</v>
+        <v>234.4432540188167</v>
       </c>
       <c r="Q24" t="n">
         <v>156.7191066416381</v>
       </c>
       <c r="R24" t="n">
-        <v>76.2271740523306</v>
+        <v>76.22717405233061</v>
       </c>
       <c r="S24" t="n">
         <v>22.80461162133511</v>
       </c>
       <c r="T24" t="n">
-        <v>4.948627645810382</v>
+        <v>4.948627645810383</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08077194198819998</v>
+        <v>0.08077194198820001</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,13 +32859,13 @@
         <v>1.029290539434329</v>
       </c>
       <c r="H25" t="n">
-        <v>9.151328614243408</v>
+        <v>9.151328614243409</v>
       </c>
       <c r="I25" t="n">
-        <v>30.95357367680693</v>
+        <v>30.95357367680694</v>
       </c>
       <c r="J25" t="n">
-        <v>72.77084113800707</v>
+        <v>72.77084113800709</v>
       </c>
       <c r="K25" t="n">
         <v>119.5848463088248</v>
@@ -32880,25 +32880,25 @@
         <v>157.5095240936189</v>
       </c>
       <c r="O25" t="n">
-        <v>145.4855391556814</v>
+        <v>145.4855391556815</v>
       </c>
       <c r="P25" t="n">
         <v>124.488012151221</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.18904689754189</v>
+        <v>86.18904689754191</v>
       </c>
       <c r="R25" t="n">
-        <v>46.28064552765628</v>
+        <v>46.2806455276563</v>
       </c>
       <c r="S25" t="n">
-        <v>17.93772694632371</v>
+        <v>17.93772694632372</v>
       </c>
       <c r="T25" t="n">
-        <v>4.397877759401224</v>
+        <v>4.397877759401225</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05614312033278166</v>
+        <v>0.05614312033278167</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34793,10 +34793,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35264,7 +35264,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>182.8042829871026</v>
+        <v>182.8042829871028</v>
       </c>
       <c r="K11" t="n">
-        <v>395.9406818108711</v>
+        <v>395.9406818108714</v>
       </c>
       <c r="L11" t="n">
-        <v>544.0041015414961</v>
+        <v>544.0041015414963</v>
       </c>
       <c r="M11" t="n">
-        <v>622.0836696901131</v>
+        <v>622.0836696901134</v>
       </c>
       <c r="N11" t="n">
-        <v>617.3698383333311</v>
+        <v>617.3698383333315</v>
       </c>
       <c r="O11" t="n">
-        <v>537.3207531738341</v>
+        <v>537.3207531738344</v>
       </c>
       <c r="P11" t="n">
-        <v>420.5358992490567</v>
+        <v>420.535899249057</v>
       </c>
       <c r="Q11" t="n">
-        <v>237.803169151309</v>
+        <v>237.8031691513092</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>115.2473021649299</v>
       </c>
       <c r="K12" t="n">
-        <v>324.8758372501901</v>
+        <v>60.41060023761173</v>
       </c>
       <c r="L12" t="n">
-        <v>498.8602980653076</v>
+        <v>128.0199527618487</v>
       </c>
       <c r="M12" t="n">
-        <v>634.6507024052023</v>
+        <v>634.6507024052025</v>
       </c>
       <c r="N12" t="n">
-        <v>187.9713137805513</v>
+        <v>667.3136881241052</v>
       </c>
       <c r="O12" t="n">
-        <v>543.3751106345439</v>
+        <v>543.3751106345442</v>
       </c>
       <c r="P12" t="n">
-        <v>198.3466315224274</v>
+        <v>239.0625373299799</v>
       </c>
       <c r="Q12" t="n">
-        <v>226.8146202914657</v>
+        <v>226.8146202914658</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>66.70081783439737</v>
+        <v>66.70081783439717</v>
       </c>
       <c r="K13" t="n">
-        <v>184.604511296005</v>
+        <v>184.6045112960048</v>
       </c>
       <c r="L13" t="n">
-        <v>267.9066137270976</v>
+        <v>267.9066137270975</v>
       </c>
       <c r="M13" t="n">
-        <v>288.2190044245958</v>
+        <v>288.2190044245957</v>
       </c>
       <c r="N13" t="n">
-        <v>288.9308532859105</v>
+        <v>288.9308532859104</v>
       </c>
       <c r="O13" t="n">
-        <v>257.3598238827842</v>
+        <v>257.359823882784</v>
       </c>
       <c r="P13" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291774</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.31616045891057</v>
+        <v>87.31616045891037</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>324.8758372501901</v>
       </c>
       <c r="L15" t="n">
-        <v>396.0107257514945</v>
+        <v>498.8602980653076</v>
       </c>
       <c r="M15" t="n">
-        <v>634.6507024052023</v>
+        <v>414.065718683206</v>
       </c>
       <c r="N15" t="n">
-        <v>667.3136881241048</v>
+        <v>187.9713137805513</v>
       </c>
       <c r="O15" t="n">
-        <v>149.5127913578144</v>
+        <v>543.3751106345439</v>
       </c>
       <c r="P15" t="n">
-        <v>100.4688466044864</v>
+        <v>418.9316152444236</v>
       </c>
       <c r="Q15" t="n">
         <v>226.8146202914657</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>66.70081783439737</v>
+        <v>66.70081783439731</v>
       </c>
       <c r="K16" t="n">
-        <v>184.604511296005</v>
+        <v>184.6045112960049</v>
       </c>
       <c r="L16" t="n">
         <v>267.9066137270976</v>
@@ -35817,13 +35817,13 @@
         <v>288.9308532859105</v>
       </c>
       <c r="O16" t="n">
-        <v>257.3598238827842</v>
+        <v>257.3598238827841</v>
       </c>
       <c r="P16" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291775</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.31616045891057</v>
+        <v>87.31616045891052</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.8042829871026</v>
+        <v>182.8042829871031</v>
       </c>
       <c r="K17" t="n">
         <v>395.9406818108711</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>324.8758372501901</v>
@@ -35969,16 +35969,16 @@
         <v>498.8602980653076</v>
       </c>
       <c r="M18" t="n">
-        <v>168.9456386552024</v>
+        <v>634.6507024052023</v>
       </c>
       <c r="N18" t="n">
-        <v>317.8440916436249</v>
+        <v>187.9713137805513</v>
       </c>
       <c r="O18" t="n">
         <v>543.3751106345439</v>
       </c>
       <c r="P18" t="n">
-        <v>418.9316152444236</v>
+        <v>198.3466315224274</v>
       </c>
       <c r="Q18" t="n">
         <v>226.8146202914657</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>66.70081783439737</v>
+        <v>66.70081783439731</v>
       </c>
       <c r="K19" t="n">
-        <v>184.604511296005</v>
+        <v>184.6045112960049</v>
       </c>
       <c r="L19" t="n">
         <v>267.9066137270976</v>
@@ -36054,13 +36054,13 @@
         <v>288.9308532859105</v>
       </c>
       <c r="O19" t="n">
-        <v>257.3598238827842</v>
+        <v>257.3598238827841</v>
       </c>
       <c r="P19" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291775</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.31616045891057</v>
+        <v>87.31616045891052</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.8042829871026</v>
+        <v>182.8042829871027</v>
       </c>
       <c r="K20" t="n">
         <v>395.9406818108711</v>
@@ -36130,10 +36130,10 @@
         <v>622.0836696901131</v>
       </c>
       <c r="N20" t="n">
-        <v>617.3698383333311</v>
+        <v>617.3698383333312</v>
       </c>
       <c r="O20" t="n">
-        <v>537.3207531738341</v>
+        <v>537.3207531738342</v>
       </c>
       <c r="P20" t="n">
         <v>420.5358992490567</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>324.8758372501901</v>
+        <v>314.3681412640427</v>
       </c>
       <c r="L21" t="n">
         <v>498.8602980653076</v>
       </c>
       <c r="M21" t="n">
-        <v>168.9456386552024</v>
+        <v>634.6507024052023</v>
       </c>
       <c r="N21" t="n">
-        <v>317.8440916436249</v>
+        <v>187.9713137805514</v>
       </c>
       <c r="O21" t="n">
         <v>543.3751106345439</v>
@@ -36218,7 +36218,7 @@
         <v>418.9316152444236</v>
       </c>
       <c r="Q21" t="n">
-        <v>226.8146202914657</v>
+        <v>16.73733255561663</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>66.70081783439733</v>
       </c>
       <c r="K22" t="n">
-        <v>184.6045112960049</v>
+        <v>184.604511296005</v>
       </c>
       <c r="L22" t="n">
         <v>267.9066137270976</v>
@@ -36297,7 +36297,7 @@
         <v>209.0557282291775</v>
       </c>
       <c r="Q22" t="n">
-        <v>87.31616045891053</v>
+        <v>87.31616045891055</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.8042829871026</v>
+        <v>182.8042829871027</v>
       </c>
       <c r="K23" t="n">
         <v>395.9406818108711</v>
@@ -36367,10 +36367,10 @@
         <v>622.0836696901131</v>
       </c>
       <c r="N23" t="n">
-        <v>617.3698383333311</v>
+        <v>617.3698383333312</v>
       </c>
       <c r="O23" t="n">
-        <v>537.3207531738341</v>
+        <v>537.3207531738342</v>
       </c>
       <c r="P23" t="n">
         <v>420.5358992490567</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>324.8758372501901</v>
+        <v>314.3681412640427</v>
       </c>
       <c r="L24" t="n">
-        <v>128.0199527618484</v>
+        <v>498.8602980653076</v>
       </c>
       <c r="M24" t="n">
         <v>634.6507024052023</v>
       </c>
       <c r="N24" t="n">
-        <v>667.3136881241048</v>
+        <v>187.9713137805514</v>
       </c>
       <c r="O24" t="n">
-        <v>149.5127913578144</v>
+        <v>543.3751106345439</v>
       </c>
       <c r="P24" t="n">
-        <v>368.4596195941323</v>
+        <v>418.9316152444236</v>
       </c>
       <c r="Q24" t="n">
-        <v>226.8146202914657</v>
+        <v>16.73733255561663</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>66.70081783439737</v>
+        <v>66.7008178343974</v>
       </c>
       <c r="K25" t="n">
-        <v>184.604511296005</v>
+        <v>184.6045112960051</v>
       </c>
       <c r="L25" t="n">
         <v>267.9066137270976</v>
       </c>
       <c r="M25" t="n">
-        <v>288.2190044245958</v>
+        <v>288.2190044245959</v>
       </c>
       <c r="N25" t="n">
-        <v>288.9308532859105</v>
+        <v>288.9308532859106</v>
       </c>
       <c r="O25" t="n">
         <v>257.3598238827842</v>
@@ -36534,7 +36534,7 @@
         <v>209.0557282291776</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.31616045891057</v>
+        <v>87.31616045891062</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>324.8758372501901</v>
+        <v>60.41060023761153</v>
       </c>
       <c r="L30" t="n">
-        <v>128.0199527618484</v>
+        <v>498.8602980653076</v>
       </c>
       <c r="M30" t="n">
         <v>634.6507024052023</v>
@@ -36923,13 +36923,13 @@
         <v>667.3136881241048</v>
       </c>
       <c r="O30" t="n">
-        <v>149.5127913578144</v>
+        <v>543.3751106345439</v>
       </c>
       <c r="P30" t="n">
-        <v>368.4596195941323</v>
+        <v>193.5467819273017</v>
       </c>
       <c r="Q30" t="n">
-        <v>226.8146202914657</v>
+        <v>16.7373325556166</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>66.7008178343974</v>
+        <v>66.70081783439726</v>
       </c>
       <c r="K31" t="n">
-        <v>184.604511296005</v>
+        <v>184.6045112960049</v>
       </c>
       <c r="L31" t="n">
-        <v>267.9066137270976</v>
+        <v>267.9066137270975</v>
       </c>
       <c r="M31" t="n">
-        <v>288.2190044245958</v>
+        <v>288.2190044245957</v>
       </c>
       <c r="N31" t="n">
-        <v>288.9308532859106</v>
+        <v>288.9308532859104</v>
       </c>
       <c r="O31" t="n">
-        <v>257.3598238827842</v>
+        <v>257.3598238827841</v>
       </c>
       <c r="P31" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291775</v>
       </c>
       <c r="Q31" t="n">
-        <v>87.3161604589106</v>
+        <v>87.31616045891046</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>199.120839099113</v>
+        <v>60.41060023761153</v>
       </c>
       <c r="L33" t="n">
         <v>498.8602980653076</v>
@@ -37157,13 +37157,13 @@
         <v>634.6507024052023</v>
       </c>
       <c r="N33" t="n">
-        <v>187.9713137805513</v>
+        <v>667.3136881241048</v>
       </c>
       <c r="O33" t="n">
         <v>543.3751106345439</v>
       </c>
       <c r="P33" t="n">
-        <v>418.9316152444236</v>
+        <v>193.5467819273017</v>
       </c>
       <c r="Q33" t="n">
         <v>16.7373325556166</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>66.7008178343974</v>
+        <v>66.70081783439726</v>
       </c>
       <c r="K34" t="n">
-        <v>184.604511296005</v>
+        <v>184.6045112960049</v>
       </c>
       <c r="L34" t="n">
-        <v>267.9066137270976</v>
+        <v>267.9066137270975</v>
       </c>
       <c r="M34" t="n">
-        <v>288.2190044245958</v>
+        <v>288.2190044245957</v>
       </c>
       <c r="N34" t="n">
-        <v>288.9308532859106</v>
+        <v>288.9308532859104</v>
       </c>
       <c r="O34" t="n">
-        <v>257.3598238827842</v>
+        <v>257.3598238827841</v>
       </c>
       <c r="P34" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291775</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.3161604589106</v>
+        <v>87.31616045891046</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.8042829871026</v>
+        <v>182.8042829871003</v>
       </c>
       <c r="K35" t="n">
         <v>395.9406818108711</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>324.8758372501901</v>
+        <v>60.41060023761153</v>
       </c>
       <c r="L36" t="n">
-        <v>128.0199527618484</v>
+        <v>498.8602980653076</v>
       </c>
       <c r="M36" t="n">
         <v>634.6507024052023</v>
@@ -37397,13 +37397,13 @@
         <v>667.3136881241048</v>
       </c>
       <c r="O36" t="n">
-        <v>417.5035643474603</v>
+        <v>543.3751106345439</v>
       </c>
       <c r="P36" t="n">
-        <v>100.4688466044864</v>
+        <v>193.5467819273017</v>
       </c>
       <c r="Q36" t="n">
-        <v>226.8146202914657</v>
+        <v>16.7373325556166</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>66.70081783439731</v>
+        <v>66.70081783439744</v>
       </c>
       <c r="K37" t="n">
-        <v>184.6045112960049</v>
+        <v>184.6045112960051</v>
       </c>
       <c r="L37" t="n">
-        <v>267.9066137270976</v>
+        <v>267.9066137270977</v>
       </c>
       <c r="M37" t="n">
-        <v>288.2190044245958</v>
+        <v>288.2190044245959</v>
       </c>
       <c r="N37" t="n">
-        <v>288.9308532859105</v>
+        <v>288.9308532859106</v>
       </c>
       <c r="O37" t="n">
-        <v>257.3598238827841</v>
+        <v>257.3598238827843</v>
       </c>
       <c r="P37" t="n">
-        <v>209.0557282291775</v>
+        <v>209.0557282291776</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.31616045891052</v>
+        <v>87.31616045891064</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>324.8758372501901</v>
+        <v>60.41060023761153</v>
       </c>
       <c r="L39" t="n">
         <v>498.8602980653076</v>
       </c>
       <c r="M39" t="n">
-        <v>168.9456386552024</v>
+        <v>517.6513499921682</v>
       </c>
       <c r="N39" t="n">
-        <v>317.8440916436249</v>
+        <v>667.3136881241048</v>
       </c>
       <c r="O39" t="n">
         <v>543.3751106345439</v>
       </c>
       <c r="P39" t="n">
-        <v>418.9316152444236</v>
+        <v>100.4688466044864</v>
       </c>
       <c r="Q39" t="n">
         <v>226.8146202914657</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>66.70081783439731</v>
+        <v>66.70081783439738</v>
       </c>
       <c r="K40" t="n">
-        <v>184.6045112960049</v>
+        <v>184.604511296005</v>
       </c>
       <c r="L40" t="n">
         <v>267.9066137270976</v>
@@ -37710,16 +37710,16 @@
         <v>288.2190044245958</v>
       </c>
       <c r="N40" t="n">
-        <v>288.9308532859105</v>
+        <v>288.9308532859106</v>
       </c>
       <c r="O40" t="n">
-        <v>257.3598238827841</v>
+        <v>257.3598238827842</v>
       </c>
       <c r="P40" t="n">
-        <v>209.0557282291775</v>
+        <v>209.0557282291776</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.31616045891052</v>
+        <v>87.31616045891059</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>395.9406818108711</v>
       </c>
       <c r="L41" t="n">
-        <v>544.0041015414956</v>
+        <v>544.0041015414961</v>
       </c>
       <c r="M41" t="n">
         <v>622.0836696901131</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>324.8758372501901</v>
+        <v>314.3681412640428</v>
       </c>
       <c r="L42" t="n">
         <v>498.8602980653076</v>
       </c>
       <c r="M42" t="n">
-        <v>168.9456386552024</v>
+        <v>634.6507024052023</v>
       </c>
       <c r="N42" t="n">
-        <v>317.8440916436249</v>
+        <v>187.9713137805513</v>
       </c>
       <c r="O42" t="n">
         <v>543.3751106345439</v>
@@ -37877,7 +37877,7 @@
         <v>418.9316152444236</v>
       </c>
       <c r="Q42" t="n">
-        <v>226.8146202914657</v>
+        <v>16.7373325556166</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.307925737194253</v>
+        <v>2.307925737194267</v>
       </c>
       <c r="K43" t="n">
         <v>120.2116191988019</v>
@@ -37947,7 +37947,7 @@
         <v>223.8261123273927</v>
       </c>
       <c r="N43" t="n">
-        <v>224.5379611887074</v>
+        <v>224.5379611887075</v>
       </c>
       <c r="O43" t="n">
         <v>192.9669317855811</v>
@@ -37956,7 +37956,7 @@
         <v>144.6628361319745</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.92326836170746</v>
+        <v>22.92326836170747</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.307925737194196</v>
+        <v>2.307925737194097</v>
       </c>
       <c r="K46" t="n">
-        <v>120.2116191988018</v>
+        <v>120.2116191988017</v>
       </c>
       <c r="L46" t="n">
-        <v>203.5137216298944</v>
+        <v>203.5137216298943</v>
       </c>
       <c r="M46" t="n">
-        <v>223.8261123273927</v>
+        <v>223.8261123273926</v>
       </c>
       <c r="N46" t="n">
-        <v>224.5379611887074</v>
+        <v>224.5379611887073</v>
       </c>
       <c r="O46" t="n">
-        <v>192.966931785581</v>
+        <v>192.9669317855809</v>
       </c>
       <c r="P46" t="n">
-        <v>144.6628361319744</v>
+        <v>144.6628361319743</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.9232683617074</v>
+        <v>22.9232683617073</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
